--- a/Events.xlsx
+++ b/Events.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Telemetry-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SpaceXtract\Telemetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="62">
   <si>
     <t>Throttle Down</t>
   </si>
@@ -99,6 +99,9 @@
     <t>SES-10</t>
   </si>
   <si>
+    <t>Inmarsat-5 F4</t>
+  </si>
+  <si>
     <t>SpaceX CRS-11</t>
   </si>
   <si>
@@ -142,6 +145,15 @@
   </si>
   <si>
     <t>Hispasat 30W-6</t>
+  </si>
+  <si>
+    <t>Iridium NEXT 5</t>
+  </si>
+  <si>
+    <t>SpaceX CRS-14</t>
+  </si>
+  <si>
+    <t>TESS</t>
   </si>
   <si>
     <t>Orbcomm OG2</t>
@@ -193,9 +205,6 @@
   </si>
   <si>
     <t>Apogee</t>
-  </si>
-  <si>
-    <t>Launch to MECO</t>
   </si>
 </sst>
 </file>
@@ -535,13 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:O220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1070,46 +1082,46 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>232.57</v>
+        <v>298.97500000000002</v>
       </c>
       <c r="F13">
-        <v>368.82900000000001</v>
+        <v>376.649</v>
       </c>
       <c r="G13">
-        <v>136.25</v>
+        <v>77.67</v>
       </c>
       <c r="H13">
-        <v>4.931</v>
+        <v>6.7439999999999998</v>
       </c>
       <c r="I13">
-        <v>11.747999999999999</v>
+        <v>10.025</v>
       </c>
       <c r="J13">
-        <v>6.81</v>
+        <v>3.28</v>
       </c>
       <c r="K13">
-        <v>0.161</v>
+        <v>1.34</v>
       </c>
       <c r="L13">
-        <v>2.2919999999999998</v>
+        <v>3.089</v>
       </c>
       <c r="M13">
-        <v>2.13</v>
+        <v>1.74</v>
       </c>
       <c r="N13">
-        <v>17.626999999999999</v>
+        <v>17.238</v>
       </c>
       <c r="O13">
-        <v>14.179</v>
+        <v>15.382999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1117,46 +1129,46 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>235.07400000000001</v>
+        <v>232.36500000000001</v>
       </c>
       <c r="F14">
-        <v>313.92200000000003</v>
+        <v>368.55399999999997</v>
       </c>
       <c r="G14">
-        <v>78.84</v>
+        <v>136.18</v>
       </c>
       <c r="H14">
-        <v>4.8620000000000001</v>
+        <v>4.923</v>
       </c>
       <c r="I14">
-        <v>8.4160000000000004</v>
+        <v>11.736000000000001</v>
       </c>
       <c r="J14">
-        <v>3.55</v>
+        <v>6.81</v>
       </c>
       <c r="K14">
-        <v>0.68899999999999995</v>
+        <v>0.16</v>
       </c>
       <c r="L14">
-        <v>2.0819999999999999</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="M14">
-        <v>1.39</v>
+        <v>2.11</v>
       </c>
       <c r="N14">
-        <v>17.024999999999999</v>
+        <v>17.594000000000001</v>
       </c>
       <c r="O14">
-        <v>14.193</v>
+        <v>14.243</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1164,46 +1176,46 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>228.274</v>
+        <v>234.93799999999999</v>
       </c>
       <c r="F15">
-        <v>349.72199999999998</v>
+        <v>313.64499999999998</v>
       </c>
       <c r="G15">
-        <v>121.44</v>
+        <v>78.7</v>
       </c>
       <c r="H15">
-        <v>4.6539999999999999</v>
+        <v>4.8540000000000001</v>
       </c>
       <c r="I15">
-        <v>9.702</v>
+        <v>8.4079999999999995</v>
       </c>
       <c r="J15">
-        <v>5.04</v>
+        <v>3.55</v>
       </c>
       <c r="K15">
-        <v>0.13</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="L15">
-        <v>2.117</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="M15">
-        <v>1.98</v>
+        <v>1.38</v>
       </c>
       <c r="N15">
-        <v>17.433</v>
+        <v>17.013999999999999</v>
       </c>
       <c r="O15">
-        <v>14.981999999999999</v>
+        <v>14.202</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1211,46 +1223,46 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>243.261</v>
+        <v>228.274</v>
       </c>
       <c r="F16">
-        <v>480.16800000000001</v>
+        <v>349.72199999999998</v>
       </c>
       <c r="G16">
-        <v>236.9</v>
+        <v>121.44</v>
       </c>
       <c r="H16">
-        <v>5.2610000000000001</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="I16">
-        <v>17.838999999999999</v>
+        <v>9.702</v>
       </c>
       <c r="J16">
-        <v>12.57</v>
+        <v>5.04</v>
       </c>
       <c r="K16">
-        <v>0.157</v>
+        <v>0.13</v>
       </c>
       <c r="L16">
-        <v>4.9290000000000003</v>
+        <v>2.117</v>
       </c>
       <c r="M16">
-        <v>4.7699999999999996</v>
+        <v>1.98</v>
       </c>
       <c r="N16">
-        <v>19.484000000000002</v>
+        <v>17.433</v>
       </c>
       <c r="O16">
-        <v>13.715</v>
+        <v>14.981999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1258,46 +1270,46 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>231.441</v>
+        <v>243.12200000000001</v>
       </c>
       <c r="F17">
-        <v>303.375</v>
+        <v>479.81200000000001</v>
       </c>
       <c r="G17">
-        <v>71.930000000000007</v>
+        <v>236.69</v>
       </c>
       <c r="H17">
-        <v>4.7119999999999997</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="I17">
-        <v>8.42</v>
+        <v>17.824000000000002</v>
       </c>
       <c r="J17">
-        <v>3.7</v>
+        <v>12.57</v>
       </c>
       <c r="K17">
-        <v>0.01</v>
+        <v>0.156</v>
       </c>
       <c r="L17">
-        <v>3.5999999999999997E-2</v>
+        <v>4.9269999999999996</v>
       </c>
       <c r="M17">
-        <v>0.02</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="N17">
-        <v>17.018999999999998</v>
+        <v>19.469000000000001</v>
       </c>
       <c r="O17">
-        <v>14.478</v>
+        <v>13.725</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1305,46 +1317,46 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>207.28</v>
+        <v>231.27</v>
       </c>
       <c r="F18">
-        <v>369.39299999999997</v>
+        <v>303.09699999999998</v>
       </c>
       <c r="G18">
-        <v>162.11000000000001</v>
+        <v>71.819999999999993</v>
       </c>
       <c r="H18">
-        <v>4.1900000000000004</v>
+        <v>4.7050000000000001</v>
       </c>
       <c r="I18">
-        <v>12.377000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="J18">
-        <v>8.18</v>
+        <v>3.7</v>
       </c>
       <c r="K18">
-        <v>2.1000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="L18">
-        <v>1.796</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="M18">
-        <v>1.77</v>
+        <v>0.03</v>
       </c>
       <c r="N18">
-        <v>18.327999999999999</v>
+        <v>17.004000000000001</v>
       </c>
       <c r="O18">
-        <v>13.952999999999999</v>
+        <v>14.465</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1352,46 +1364,46 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>263.16500000000002</v>
+        <v>207.18899999999999</v>
       </c>
       <c r="F19">
-        <v>309.2</v>
+        <v>368.851</v>
       </c>
       <c r="G19">
-        <v>46.03</v>
+        <v>161.66</v>
       </c>
       <c r="H19">
-        <v>5.8730000000000002</v>
+        <v>4.234</v>
       </c>
       <c r="I19">
-        <v>8.2880000000000003</v>
+        <v>12.365</v>
       </c>
       <c r="J19">
-        <v>2.41</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="K19">
-        <v>0.73399999999999999</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="L19">
-        <v>1.621</v>
+        <v>2.98</v>
       </c>
       <c r="M19">
-        <v>0.88</v>
+        <v>2.27</v>
       </c>
       <c r="N19">
-        <v>16.268000000000001</v>
+        <v>18.288</v>
       </c>
       <c r="O19">
-        <v>13.938000000000001</v>
+        <v>13.736000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1399,46 +1411,46 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>292.03699999999998</v>
+        <v>262.97199999999998</v>
       </c>
       <c r="F20">
-        <v>392.20499999999998</v>
+        <v>308.92200000000003</v>
       </c>
       <c r="G20">
-        <v>100.16</v>
+        <v>45.95</v>
       </c>
       <c r="H20">
-        <v>6.3890000000000002</v>
+        <v>5.8630000000000004</v>
       </c>
       <c r="I20">
-        <v>10.249000000000001</v>
+        <v>8.2789999999999999</v>
       </c>
       <c r="J20">
-        <v>3.86</v>
+        <v>2.41</v>
       </c>
       <c r="K20">
-        <v>1.5780000000000001</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="L20">
-        <v>3.7959999999999998</v>
+        <v>1.6279999999999999</v>
       </c>
       <c r="M20">
-        <v>2.21</v>
+        <v>0.88</v>
       </c>
       <c r="N20">
-        <v>17.614999999999998</v>
+        <v>16.234000000000002</v>
       </c>
       <c r="O20">
-        <v>15.904999999999999</v>
+        <v>13.935</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1446,46 +1458,46 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>245.483</v>
+        <v>291.75900000000001</v>
       </c>
       <c r="F21">
-        <v>387.988</v>
+        <v>391.911</v>
       </c>
       <c r="G21">
-        <v>142.5</v>
+        <v>100.15</v>
       </c>
       <c r="H21">
-        <v>5.2030000000000003</v>
+        <v>6.38</v>
       </c>
       <c r="I21">
-        <v>12.268000000000001</v>
+        <v>10.239000000000001</v>
       </c>
       <c r="J21">
-        <v>7.06</v>
+        <v>3.85</v>
       </c>
       <c r="K21">
-        <v>0.75700000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="L21">
-        <v>3.2170000000000001</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="M21">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
       <c r="N21">
-        <v>18.399000000000001</v>
+        <v>17.568999999999999</v>
       </c>
       <c r="O21">
-        <v>14.308</v>
+        <v>15.872999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1493,46 +1505,46 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>222.22200000000001</v>
+        <v>245.34399999999999</v>
       </c>
       <c r="F22">
-        <v>262.22199999999998</v>
+        <v>387.71199999999999</v>
       </c>
       <c r="G22">
-        <v>39.99</v>
+        <v>142.36000000000001</v>
       </c>
       <c r="H22">
-        <v>4.5919999999999996</v>
+        <v>5.1959999999999997</v>
       </c>
       <c r="I22">
-        <v>7.2169999999999996</v>
+        <v>12.257999999999999</v>
       </c>
       <c r="J22">
-        <v>2.62</v>
+        <v>7.06</v>
       </c>
       <c r="K22">
-        <v>0.46500000000000002</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="L22">
-        <v>0.70299999999999996</v>
+        <v>3.2149999999999999</v>
       </c>
       <c r="M22">
-        <v>0.23</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N22">
-        <v>16.164000000000001</v>
+        <v>18.361000000000001</v>
       </c>
       <c r="O22">
-        <v>12.878</v>
+        <v>14.272</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1540,46 +1552,46 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>11</v>
       </c>
       <c r="E23">
-        <v>232.77699999999999</v>
+        <v>222.22200000000001</v>
       </c>
       <c r="F23">
-        <v>272.5</v>
+        <v>262.22199999999998</v>
       </c>
       <c r="G23">
-        <v>39.72</v>
+        <v>39.99</v>
       </c>
       <c r="H23">
-        <v>4.8819999999999997</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="I23">
-        <v>7.5469999999999997</v>
+        <v>7.2169999999999996</v>
       </c>
       <c r="J23">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="K23">
-        <v>0.61499999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="L23">
-        <v>1.3839999999999999</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="M23">
-        <v>0.76</v>
+        <v>0.23</v>
       </c>
       <c r="N23">
-        <v>16.218</v>
+        <v>16.164000000000001</v>
       </c>
       <c r="O23">
-        <v>12.255000000000001</v>
+        <v>12.878</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1590,43 +1602,43 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>236.11099999999999</v>
+        <v>232.68600000000001</v>
       </c>
       <c r="F24">
-        <v>344.166</v>
+        <v>272.23</v>
       </c>
       <c r="G24">
-        <v>108.05</v>
+        <v>39.54</v>
       </c>
       <c r="H24">
-        <v>4.843</v>
+        <v>4.8819999999999997</v>
       </c>
       <c r="I24">
-        <v>9.4819999999999993</v>
+        <v>7.5410000000000004</v>
       </c>
       <c r="J24">
-        <v>4.63</v>
+        <v>2.65</v>
       </c>
       <c r="K24">
-        <v>0.78</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="L24">
-        <v>2.992</v>
+        <v>1.387</v>
       </c>
       <c r="M24">
-        <v>2.21</v>
+        <v>0.77</v>
       </c>
       <c r="N24">
-        <v>17.599</v>
+        <v>16.149000000000001</v>
       </c>
       <c r="O24">
-        <v>14.146000000000001</v>
+        <v>12.157999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1634,46 +1646,46 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>212.50399999999999</v>
+        <v>236.11099999999999</v>
       </c>
       <c r="F25">
-        <v>394.178</v>
+        <v>344.166</v>
       </c>
       <c r="G25">
-        <v>181.67</v>
+        <v>108.05</v>
       </c>
       <c r="H25">
-        <v>3.65</v>
+        <v>4.843</v>
       </c>
       <c r="I25">
-        <v>12.739000000000001</v>
+        <v>9.4819999999999993</v>
       </c>
       <c r="J25">
-        <v>9.08</v>
+        <v>4.63</v>
       </c>
       <c r="K25">
-        <v>0.501</v>
+        <v>0.78</v>
       </c>
       <c r="L25">
-        <v>4.5650000000000004</v>
+        <v>2.992</v>
       </c>
       <c r="M25">
-        <v>4.0599999999999996</v>
+        <v>2.21</v>
       </c>
       <c r="N25">
-        <v>17.385000000000002</v>
+        <v>17.599</v>
       </c>
       <c r="O25">
-        <v>13.352</v>
+        <v>14.146000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1681,46 +1693,46 @@
         <v>39</v>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>220.65</v>
+        <v>212.50399999999999</v>
       </c>
       <c r="F26">
-        <v>271.38799999999998</v>
+        <v>394.178</v>
       </c>
       <c r="G26">
-        <v>50.73</v>
+        <v>181.67</v>
       </c>
       <c r="H26">
-        <v>4.5359999999999996</v>
+        <v>3.65</v>
       </c>
       <c r="I26">
-        <v>9.032</v>
+        <v>12.739000000000001</v>
       </c>
       <c r="J26">
-        <v>4.49</v>
+        <v>9.08</v>
       </c>
       <c r="K26">
-        <v>0.27200000000000002</v>
+        <v>0.501</v>
       </c>
       <c r="L26">
-        <v>1.278</v>
+        <v>4.5650000000000004</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="N26">
-        <v>15.693</v>
+        <v>17.385000000000002</v>
       </c>
       <c r="O26">
-        <v>11.635</v>
+        <v>13.352</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1728,996 +1740,996 @@
         <v>40</v>
       </c>
       <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>220.65</v>
+      </c>
+      <c r="F27">
+        <v>271.38799999999998</v>
+      </c>
+      <c r="G27">
+        <v>50.73</v>
+      </c>
+      <c r="H27">
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="I27">
+        <v>9.032</v>
+      </c>
+      <c r="J27">
+        <v>4.49</v>
+      </c>
+      <c r="K27">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L27">
+        <v>1.278</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>15.693</v>
+      </c>
+      <c r="O27">
+        <v>11.635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
         <v>54</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>63</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>265</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>313.05500000000001</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>48.05</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>5.766</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>8.07</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>1.3640000000000001</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>2.548</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>1.18</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>15.946</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>13.808999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>221.529</v>
+      </c>
+      <c r="F29">
+        <v>259.166</v>
+      </c>
+      <c r="G29">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="H29">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="I29">
+        <v>7.2869999999999999</v>
+      </c>
+      <c r="J29">
+        <v>2.54</v>
+      </c>
+      <c r="K29">
+        <v>0.499</v>
+      </c>
+      <c r="L29">
+        <v>1.194</v>
+      </c>
+      <c r="M29">
+        <v>0.69</v>
+      </c>
+      <c r="N29">
+        <v>15.074999999999999</v>
+      </c>
+      <c r="O29">
+        <v>12.502000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>93</v>
+      </c>
+      <c r="D30">
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <v>240.00399999999999</v>
+      </c>
+      <c r="F30">
+        <v>504.18299999999999</v>
+      </c>
+      <c r="G30">
+        <v>264.17</v>
+      </c>
+      <c r="H30">
+        <v>5.141</v>
+      </c>
+      <c r="I30">
+        <v>18.888000000000002</v>
+      </c>
+      <c r="J30">
+        <v>13.74</v>
+      </c>
+      <c r="K30">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="L30">
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="M30">
+        <v>5.37</v>
+      </c>
+      <c r="N30">
+        <v>20.600999999999999</v>
+      </c>
+      <c r="O30">
+        <v>13.871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>233.619</v>
+      </c>
+      <c r="F31">
+        <v>275.84100000000001</v>
+      </c>
+      <c r="G31">
+        <v>42.22</v>
+      </c>
+      <c r="H31">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I31">
+        <v>7.85</v>
+      </c>
+      <c r="J31">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>145</v>
-      </c>
-      <c r="D35">
-        <v>145</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1669.722</v>
-      </c>
-      <c r="G35">
-        <v>1669.72</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>74.45</v>
-      </c>
-      <c r="J35">
-        <v>74.45</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>29.777000000000001</v>
-      </c>
-      <c r="M35">
-        <v>29.77</v>
-      </c>
-      <c r="N35">
-        <v>34.401000000000003</v>
-      </c>
-      <c r="O35">
-        <v>9.7769999999999992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>155</v>
-      </c>
-      <c r="D36">
-        <v>155</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1707.36</v>
-      </c>
-      <c r="G36">
-        <v>1707.36</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>66.602999999999994</v>
-      </c>
-      <c r="J36">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>43.402999999999999</v>
-      </c>
-      <c r="M36">
-        <v>43.4</v>
-      </c>
-      <c r="N36">
-        <v>35.197000000000003</v>
-      </c>
-      <c r="O36">
-        <v>10.808</v>
+      <c r="K31">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.65</v>
+      </c>
+      <c r="N31">
+        <v>15.847</v>
+      </c>
+      <c r="O31">
+        <v>12.472</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>161</v>
-      </c>
-      <c r="D37">
-        <v>161</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>2312.165</v>
-      </c>
-      <c r="G37">
-        <v>2312.16</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>64.95</v>
-      </c>
-      <c r="J37">
-        <v>64.95</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>92.09</v>
-      </c>
-      <c r="M37">
-        <v>92.09</v>
-      </c>
-      <c r="N37">
-        <v>37.677</v>
-      </c>
-      <c r="O37">
-        <v>9.1170000000000009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>155</v>
-      </c>
-      <c r="D38">
-        <v>155</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1848.1469999999999</v>
-      </c>
-      <c r="G38">
-        <v>1848.14</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>68.197999999999993</v>
-      </c>
-      <c r="J38">
-        <v>68.19</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>52.591000000000001</v>
-      </c>
-      <c r="M38">
-        <v>52.59</v>
-      </c>
-      <c r="N38">
-        <v>36.637</v>
-      </c>
-      <c r="O38">
-        <v>9.93</v>
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D39">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2320.6590000000001</v>
+        <v>1669.722</v>
       </c>
       <c r="G39">
-        <v>2320.65</v>
+        <v>1669.72</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>66.617000000000004</v>
+        <v>74.45</v>
       </c>
       <c r="J39">
-        <v>66.61</v>
+        <v>74.45</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>92.168999999999997</v>
+        <v>29.777000000000001</v>
       </c>
       <c r="M39">
-        <v>92.16</v>
+        <v>29.77</v>
       </c>
       <c r="N39">
-        <v>37.274000000000001</v>
+        <v>34.401000000000003</v>
       </c>
       <c r="O39">
-        <v>10.881</v>
+        <v>9.7769999999999992</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D40">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2317.1419999999998</v>
+        <v>1707.36</v>
       </c>
       <c r="G40">
-        <v>2317.14</v>
+        <v>1707.36</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>65.792000000000002</v>
+        <v>66.602999999999994</v>
       </c>
       <c r="J40">
-        <v>65.790000000000006</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>92.295000000000002</v>
+        <v>43.402999999999999</v>
       </c>
       <c r="M40">
-        <v>92.29</v>
+        <v>43.4</v>
       </c>
       <c r="N40">
-        <v>37.445999999999998</v>
+        <v>35.197000000000003</v>
       </c>
       <c r="O40">
-        <v>10.666</v>
+        <v>10.808</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D41">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2322.3000000000002</v>
+        <v>2312.165</v>
       </c>
       <c r="G41">
-        <v>2322.3000000000002</v>
+        <v>2312.16</v>
       </c>
       <c r="H41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>66.022999999999996</v>
+        <v>64.95</v>
       </c>
       <c r="J41">
-        <v>65.97</v>
+        <v>64.95</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>91.787999999999997</v>
+        <v>92.09</v>
       </c>
       <c r="M41">
-        <v>91.78</v>
+        <v>92.09</v>
       </c>
       <c r="N41">
-        <v>37.220999999999997</v>
+        <v>37.677</v>
       </c>
       <c r="O41">
-        <v>10.787000000000001</v>
+        <v>9.1170000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D42">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1578.9259999999999</v>
+        <v>1848.1469999999999</v>
       </c>
       <c r="G42">
-        <v>1578.92</v>
+        <v>1848.14</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>60.436999999999998</v>
+        <v>68.197999999999993</v>
       </c>
       <c r="J42">
-        <v>60.43</v>
+        <v>68.19</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>37.048000000000002</v>
+        <v>52.591000000000001</v>
       </c>
       <c r="M42">
-        <v>37.04</v>
+        <v>52.59</v>
       </c>
       <c r="N42">
-        <v>34.624000000000002</v>
+        <v>36.637</v>
       </c>
       <c r="O42">
-        <v>10.502000000000001</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D43">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2265.5329999999999</v>
+        <v>2320.6590000000001</v>
       </c>
       <c r="G43">
-        <v>2265.5300000000002</v>
+        <v>2320.65</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>63.725999999999999</v>
+        <v>66.617000000000004</v>
       </c>
       <c r="J43">
-        <v>63.72</v>
+        <v>66.61</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>85.769000000000005</v>
+        <v>92.168999999999997</v>
       </c>
       <c r="M43">
-        <v>85.76</v>
+        <v>92.16</v>
       </c>
       <c r="N43">
-        <v>37.085000000000001</v>
+        <v>37.274000000000001</v>
       </c>
       <c r="O43">
-        <v>10.696999999999999</v>
+        <v>10.881</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D44">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1936.4069999999999</v>
+        <v>2317.1419999999998</v>
       </c>
       <c r="G44">
-        <v>1936.4</v>
+        <v>2317.14</v>
       </c>
       <c r="H44">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>65.102999999999994</v>
+        <v>65.792000000000002</v>
       </c>
       <c r="J44">
-        <v>64.95</v>
+        <v>65.790000000000006</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>61.243000000000002</v>
+        <v>92.295000000000002</v>
       </c>
       <c r="M44">
-        <v>61.24</v>
+        <v>92.29</v>
       </c>
       <c r="N44">
-        <v>36.481000000000002</v>
+        <v>37.445999999999998</v>
       </c>
       <c r="O44">
-        <v>10.489000000000001</v>
+        <v>10.666</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D45">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1675.2090000000001</v>
+        <v>2322.3000000000002</v>
       </c>
       <c r="G45">
-        <v>1675.2</v>
+        <v>2322.3000000000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I45">
-        <v>63.082000000000001</v>
+        <v>66.022999999999996</v>
       </c>
       <c r="J45">
-        <v>63.08</v>
+        <v>65.97</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>42.054000000000002</v>
+        <v>91.787999999999997</v>
       </c>
       <c r="M45">
-        <v>42.05</v>
+        <v>91.78</v>
       </c>
       <c r="N45">
-        <v>35.045999999999999</v>
+        <v>37.220999999999997</v>
       </c>
       <c r="O45">
-        <v>10.577</v>
+        <v>10.787000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D46">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2674.2869999999998</v>
+        <v>1578.9259999999999</v>
       </c>
       <c r="G46">
-        <v>2674.28</v>
+        <v>1578.92</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>75.551000000000002</v>
+        <v>60.436999999999998</v>
       </c>
       <c r="J46">
-        <v>75.55</v>
+        <v>60.43</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>113.71299999999999</v>
+        <v>37.048000000000002</v>
       </c>
       <c r="M46">
-        <v>113.71</v>
+        <v>37.04</v>
       </c>
       <c r="N46">
-        <v>37.161999999999999</v>
+        <v>34.624000000000002</v>
       </c>
       <c r="O46">
-        <v>10.728999999999999</v>
+        <v>10.502000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D47">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2287.453</v>
+        <v>2265.5329999999999</v>
       </c>
       <c r="G47">
-        <v>2287.4499999999998</v>
+        <v>2265.5300000000002</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>63.808</v>
+        <v>63.725999999999999</v>
       </c>
       <c r="J47">
-        <v>63.8</v>
+        <v>63.72</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>89.772000000000006</v>
+        <v>85.769000000000005</v>
       </c>
       <c r="M47">
-        <v>89.77</v>
+        <v>85.76</v>
       </c>
       <c r="N47">
-        <v>37.536000000000001</v>
+        <v>37.085000000000001</v>
       </c>
       <c r="O47">
-        <v>10.061</v>
+        <v>10.696999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D48">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1684.914</v>
+        <v>1936.4069999999999</v>
       </c>
       <c r="G48">
-        <v>1684.91</v>
+        <v>1936.4</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I48">
-        <v>67.8</v>
+        <v>65.102999999999994</v>
       </c>
       <c r="J48">
-        <v>67.8</v>
+        <v>64.95</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>39.43</v>
+        <v>61.243000000000002</v>
       </c>
       <c r="M48">
-        <v>39.43</v>
+        <v>61.24</v>
       </c>
       <c r="N48">
-        <v>35.628</v>
+        <v>36.481000000000002</v>
       </c>
       <c r="O48">
-        <v>11.689</v>
+        <v>10.489000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1684.2739999999999</v>
+        <v>1675.2090000000001</v>
       </c>
       <c r="G49">
-        <v>1684.27</v>
+        <v>1675.2</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>62.381999999999998</v>
+        <v>63.082000000000001</v>
       </c>
       <c r="J49">
-        <v>62.38</v>
+        <v>63.08</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>43.371000000000002</v>
+        <v>42.054000000000002</v>
       </c>
       <c r="M49">
-        <v>43.37</v>
+        <v>42.05</v>
       </c>
       <c r="N49">
-        <v>34.893999999999998</v>
+        <v>35.045999999999999</v>
       </c>
       <c r="O49">
-        <v>10.465</v>
+        <v>10.577</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D50">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2361.9690000000001</v>
+        <v>2674.2869999999998</v>
       </c>
       <c r="G50">
-        <v>2361.96</v>
+        <v>2674.28</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>65.959000000000003</v>
+        <v>75.551000000000002</v>
       </c>
       <c r="J50">
-        <v>65.95</v>
+        <v>75.55</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>90.945999999999998</v>
+        <v>113.71299999999999</v>
       </c>
       <c r="M50">
-        <v>90.94</v>
+        <v>113.71</v>
       </c>
       <c r="N50">
-        <v>37.173999999999999</v>
+        <v>37.161999999999999</v>
       </c>
       <c r="O50">
-        <v>10.922000000000001</v>
+        <v>10.728999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D51">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2633.7539999999999</v>
+        <v>2287.453</v>
       </c>
       <c r="G51">
-        <v>2633.75</v>
+        <v>2287.4499999999998</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>72.551000000000002</v>
+        <v>63.808</v>
       </c>
       <c r="J51">
-        <v>72.55</v>
+        <v>63.8</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>109.10299999999999</v>
+        <v>89.772000000000006</v>
       </c>
       <c r="M51">
-        <v>109.1</v>
+        <v>89.77</v>
       </c>
       <c r="N51">
-        <v>37.701000000000001</v>
+        <v>37.536000000000001</v>
       </c>
       <c r="O51">
-        <v>10.792999999999999</v>
+        <v>10.061</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D52">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1655.5309999999999</v>
+        <v>1684.961</v>
       </c>
       <c r="G52">
-        <v>1655.53</v>
+        <v>1684.96</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>60.896999999999998</v>
+        <v>67.753</v>
       </c>
       <c r="J52">
-        <v>60.89</v>
+        <v>67.75</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>42.277000000000001</v>
+        <v>39.265999999999998</v>
       </c>
       <c r="M52">
-        <v>42.27</v>
+        <v>39.26</v>
       </c>
       <c r="N52">
-        <v>35.064999999999998</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="O52">
-        <v>10.534000000000001</v>
+        <v>12.106</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D53">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F53">
-        <v>1894.625</v>
+        <v>2720.38</v>
       </c>
       <c r="G53">
-        <v>1894.62</v>
+        <v>2720.1</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>85.325999999999993</v>
+        <v>74.882000000000005</v>
       </c>
       <c r="J53">
-        <v>85.32</v>
+        <v>74.88</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>31.391999999999999</v>
+        <v>117.78400000000001</v>
       </c>
       <c r="M53">
-        <v>31.39</v>
+        <v>117.78</v>
       </c>
       <c r="N53">
-        <v>37.075000000000003</v>
+        <v>37.238999999999997</v>
       </c>
       <c r="O53">
-        <v>11.037000000000001</v>
+        <v>10.682</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2732,556 +2744,833 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1658.3330000000001</v>
+        <v>1684.32</v>
       </c>
       <c r="G54">
-        <v>1658.33</v>
+        <v>1684.32</v>
       </c>
       <c r="H54">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>64.793999999999997</v>
+        <v>62.363</v>
       </c>
       <c r="J54">
-        <v>64.739999999999995</v>
+        <v>62.36</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>35.83</v>
+        <v>43.335999999999999</v>
       </c>
       <c r="M54">
-        <v>35.83</v>
+        <v>43.33</v>
       </c>
       <c r="N54">
-        <v>35.877000000000002</v>
+        <v>34.707999999999998</v>
       </c>
       <c r="O54">
-        <v>10.805</v>
+        <v>10.487</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D55">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1932.55</v>
+        <v>2361.877</v>
       </c>
       <c r="G55">
-        <v>1932.55</v>
+        <v>2361.87</v>
       </c>
       <c r="H55">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>64.701999999999998</v>
+        <v>65.924999999999997</v>
       </c>
       <c r="J55">
-        <v>64.55</v>
+        <v>65.92</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>62.533000000000001</v>
+        <v>90.870999999999995</v>
       </c>
       <c r="M55">
-        <v>62.53</v>
+        <v>90.87</v>
       </c>
       <c r="N55">
-        <v>35.545000000000002</v>
+        <v>37.298999999999999</v>
       </c>
       <c r="O55">
-        <v>8.6829999999999998</v>
+        <v>11.069000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D56">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>2289.9749999999999</v>
+        <v>2633.7539999999999</v>
       </c>
       <c r="G56">
-        <v>2289.9699999999998</v>
+        <v>2633.75</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>65.792000000000002</v>
+        <v>72.551000000000002</v>
       </c>
       <c r="J56">
-        <v>65.790000000000006</v>
+        <v>72.55</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>87.143000000000001</v>
+        <v>109.10299999999999</v>
       </c>
       <c r="M56">
-        <v>87.14</v>
+        <v>109.1</v>
       </c>
       <c r="N56">
-        <v>37.843000000000004</v>
+        <v>37.701000000000001</v>
       </c>
       <c r="O56">
-        <v>9.4909999999999997</v>
+        <v>10.792999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D57">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2281.4380000000001</v>
+        <v>1655.528</v>
       </c>
       <c r="G57">
-        <v>2281.4299999999998</v>
+        <v>1655.52</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>64.593999999999994</v>
+        <v>60.868000000000002</v>
       </c>
       <c r="J57">
-        <v>64.59</v>
+        <v>60.86</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>86.504999999999995</v>
+        <v>42.247999999999998</v>
       </c>
       <c r="M57">
-        <v>86.5</v>
+        <v>42.24</v>
       </c>
       <c r="N57">
-        <v>37.186</v>
+        <v>35.241999999999997</v>
       </c>
       <c r="O57">
-        <v>10.646000000000001</v>
+        <v>10.509</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D58">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1657.4749999999999</v>
+        <v>1894.652</v>
       </c>
       <c r="G58">
-        <v>1657.47</v>
+        <v>1894.65</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>62.642000000000003</v>
+        <v>85.275999999999996</v>
       </c>
       <c r="J58">
-        <v>62.64</v>
+        <v>85.27</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>40.25</v>
+        <v>31.416</v>
       </c>
       <c r="M58">
-        <v>40.25</v>
+        <v>31.41</v>
       </c>
       <c r="N58">
-        <v>34.93</v>
+        <v>37.195</v>
       </c>
       <c r="O58">
-        <v>10.664999999999999</v>
+        <v>11.037000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D59">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2059.444</v>
+        <v>1657.732</v>
       </c>
       <c r="G59">
-        <v>2059.44</v>
+        <v>1657.73</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I59">
-        <v>71.036000000000001</v>
+        <v>64.747</v>
       </c>
       <c r="J59">
-        <v>71.03</v>
+        <v>64.69</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>62.713999999999999</v>
+        <v>36.987000000000002</v>
       </c>
       <c r="M59">
-        <v>62.71</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="N59">
-        <v>37.235999999999997</v>
+        <v>35.360999999999997</v>
       </c>
       <c r="O59">
-        <v>11</v>
+        <v>10.769</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D60">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2.867</v>
       </c>
       <c r="F60">
-        <v>1672.0820000000001</v>
+        <v>1928.2529999999999</v>
       </c>
       <c r="G60">
-        <v>1672.08</v>
+        <v>1925.38</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I60">
-        <v>61.756</v>
+        <v>65.771000000000001</v>
       </c>
       <c r="J60">
-        <v>61.75</v>
+        <v>65.62</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>42.713000000000001</v>
+        <v>64.081000000000003</v>
       </c>
       <c r="M60">
-        <v>42.71</v>
+        <v>64.08</v>
       </c>
       <c r="N60">
-        <v>35.008000000000003</v>
+        <v>35.542000000000002</v>
       </c>
       <c r="O60">
-        <v>10.69</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>2315.9549999999999</v>
+        <v>2290.02</v>
       </c>
       <c r="G61">
-        <v>2315.9499999999998</v>
+        <v>2290.02</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>65.584000000000003</v>
+        <v>65.759</v>
       </c>
       <c r="J61">
-        <v>65.58</v>
+        <v>65.75</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>89.375</v>
+        <v>87.084000000000003</v>
       </c>
       <c r="M61">
-        <v>89.37</v>
+        <v>87.08</v>
       </c>
       <c r="N61">
-        <v>37.683999999999997</v>
+        <v>37.941000000000003</v>
       </c>
       <c r="O61">
-        <v>10.323</v>
+        <v>9.8829999999999991</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D62">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2650.058</v>
+        <v>2281.3009999999999</v>
       </c>
       <c r="G62">
-        <v>2650.05</v>
+        <v>2281.3000000000002</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>86.150999999999996</v>
+        <v>64.561000000000007</v>
       </c>
       <c r="J62">
-        <v>86.15</v>
+        <v>64.56</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>141.42400000000001</v>
+        <v>86.447000000000003</v>
       </c>
       <c r="M62">
-        <v>141.41999999999999</v>
+        <v>86.44</v>
       </c>
       <c r="N62">
-        <v>31.372</v>
+        <v>37.042999999999999</v>
       </c>
       <c r="O62">
-        <v>10.670999999999999</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D63">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1867.777</v>
+        <v>1657.383</v>
       </c>
       <c r="G63">
-        <v>1867.77</v>
+        <v>1657.38</v>
       </c>
       <c r="H63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>78.75</v>
+        <v>62.612000000000002</v>
       </c>
       <c r="J63">
-        <v>78.59</v>
+        <v>62.61</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>39.085000000000001</v>
+        <v>40.207999999999998</v>
       </c>
       <c r="M63">
-        <v>39.08</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="N63">
-        <v>37.417999999999999</v>
+        <v>34.890999999999998</v>
       </c>
       <c r="O63">
-        <v>11.234999999999999</v>
+        <v>10.648999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>153</v>
+      </c>
+      <c r="D64">
+        <v>153</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2059.444</v>
+      </c>
+      <c r="G64">
+        <v>2059.44</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>71.036000000000001</v>
+      </c>
+      <c r="J64">
+        <v>71.03</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>62.713999999999999</v>
+      </c>
+      <c r="M64">
+        <v>62.71</v>
+      </c>
+      <c r="N64">
+        <v>37.235999999999997</v>
+      </c>
+      <c r="O64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>143</v>
+      </c>
+      <c r="D65">
+        <v>143</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1672.1510000000001</v>
+      </c>
+      <c r="G65">
+        <v>1672.15</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>61.750999999999998</v>
+      </c>
+      <c r="J65">
+        <v>61.75</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>42.682000000000002</v>
+      </c>
+      <c r="M65">
+        <v>42.68</v>
+      </c>
+      <c r="N65">
+        <v>34.805</v>
+      </c>
+      <c r="O65">
+        <v>10.669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>159</v>
+      </c>
+      <c r="D66">
+        <v>159</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2315.9549999999999</v>
+      </c>
+      <c r="G66">
+        <v>2315.9499999999998</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>65.584000000000003</v>
+      </c>
+      <c r="J66">
+        <v>65.58</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>89.375</v>
+      </c>
+      <c r="M66">
+        <v>89.37</v>
+      </c>
+      <c r="N66">
+        <v>37.683999999999997</v>
+      </c>
+      <c r="O66">
+        <v>10.323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>185</v>
+      </c>
+      <c r="D67">
+        <v>185</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2650.058</v>
+      </c>
+      <c r="G67">
+        <v>2650.05</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>86.150999999999996</v>
+      </c>
+      <c r="J67">
+        <v>86.15</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>141.42400000000001</v>
+      </c>
+      <c r="M67">
+        <v>141.41999999999999</v>
+      </c>
+      <c r="N67">
+        <v>31.372</v>
+      </c>
+      <c r="O67">
+        <v>10.670999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>40</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>152</v>
+      </c>
+      <c r="D68">
+        <v>152</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1867.777</v>
+      </c>
+      <c r="G68">
+        <v>1867.77</v>
+      </c>
+      <c r="H68">
+        <v>0.15</v>
+      </c>
+      <c r="I68">
+        <v>78.75</v>
+      </c>
+      <c r="J68">
+        <v>78.59</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>39.085000000000001</v>
+      </c>
+      <c r="M68">
+        <v>39.08</v>
+      </c>
+      <c r="N68">
+        <v>37.417999999999999</v>
+      </c>
+      <c r="O68">
+        <v>11.234999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>157</v>
       </c>
-      <c r="D64">
+      <c r="D69">
         <v>157</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>2286.3879999999999</v>
       </c>
-      <c r="G64">
+      <c r="G69">
         <v>2286.38</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>64.817999999999998</v>
       </c>
-      <c r="J64">
+      <c r="J69">
         <v>64.81</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>87.596000000000004</v>
       </c>
-      <c r="M64">
+      <c r="M69">
         <v>87.59</v>
       </c>
-      <c r="N64">
+      <c r="N69">
         <v>36.991999999999997</v>
       </c>
-      <c r="O64">
+      <c r="O69">
         <v>10.324</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>155</v>
+      </c>
+      <c r="D70">
+        <v>155</v>
+      </c>
+      <c r="E70">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F70">
+        <v>2110.277</v>
+      </c>
+      <c r="G70">
+        <v>2110</v>
+      </c>
+      <c r="H70">
+        <v>0.15</v>
+      </c>
+      <c r="I70">
+        <v>66.617000000000004</v>
+      </c>
+      <c r="J70">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>70.234999999999999</v>
+      </c>
+      <c r="M70">
+        <v>70.23</v>
+      </c>
+      <c r="N70">
+        <v>37.094000000000001</v>
+      </c>
+      <c r="O70">
+        <v>10.952999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" t="s">
-        <v>9</v>
-      </c>
-      <c r="J71" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" t="s">
-        <v>12</v>
-      </c>
-      <c r="M71" t="s">
-        <v>13</v>
-      </c>
-      <c r="N71" t="s">
-        <v>14</v>
-      </c>
-      <c r="O71" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>164</v>
+      </c>
+      <c r="D71">
+        <v>164</v>
+      </c>
+      <c r="E71">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F71">
+        <v>2190.7440000000001</v>
+      </c>
+      <c r="G71">
+        <v>2190.46</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>74.650999999999996</v>
+      </c>
+      <c r="J71">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>71.998999999999995</v>
+      </c>
+      <c r="M71">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="N71">
+        <v>37.244</v>
+      </c>
+      <c r="O71">
+        <v>10.401999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3289,3357 +3578,3818 @@
         <v>44</v>
       </c>
       <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>150</v>
+      </c>
+      <c r="D72">
+        <v>150</v>
+      </c>
+      <c r="E72">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F72">
+        <v>1948.8889999999999</v>
+      </c>
+      <c r="G72">
+        <v>1948.61</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>71.052000000000007</v>
+      </c>
+      <c r="J72">
+        <v>71.05</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>53.148000000000003</v>
+      </c>
+      <c r="M72">
+        <v>53.14</v>
+      </c>
+      <c r="N72">
+        <v>37.444000000000003</v>
+      </c>
+      <c r="O72">
+        <v>10.711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79" t="s">
+        <v>14</v>
+      </c>
+      <c r="O79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80">
         <v>157</v>
       </c>
-      <c r="C72">
+      <c r="C80">
         <v>210</v>
       </c>
-      <c r="D72">
+      <c r="D80">
         <v>53</v>
       </c>
-      <c r="E72">
-        <v>1553.57</v>
-      </c>
-      <c r="F72">
-        <v>749.76</v>
-      </c>
-      <c r="G72">
-        <v>803.81</v>
-      </c>
-      <c r="H72">
-        <v>89.524000000000001</v>
-      </c>
-      <c r="I72">
-        <v>140.04499999999999</v>
-      </c>
-      <c r="J72">
-        <v>50.52</v>
-      </c>
-      <c r="K72">
-        <v>56.235999999999997</v>
-      </c>
-      <c r="L72">
-        <v>71.864999999999995</v>
-      </c>
-      <c r="M72">
-        <v>15.62</v>
-      </c>
-      <c r="N72">
-        <v>16.28</v>
-      </c>
-      <c r="O72">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73">
+      <c r="E80">
+        <v>1553.9</v>
+      </c>
+      <c r="F80">
+        <v>750.06799999999998</v>
+      </c>
+      <c r="G80">
+        <v>803.83</v>
+      </c>
+      <c r="H80">
+        <v>89.48</v>
+      </c>
+      <c r="I80">
+        <v>140.02199999999999</v>
+      </c>
+      <c r="J80">
+        <v>50.54</v>
+      </c>
+      <c r="K80">
+        <v>56.073999999999998</v>
+      </c>
+      <c r="L80">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="M80">
+        <v>15.91</v>
+      </c>
+      <c r="N80">
+        <v>16.425000000000001</v>
+      </c>
+      <c r="O80">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
         <v>161</v>
       </c>
-      <c r="C73">
+      <c r="C81">
         <v>211</v>
       </c>
-      <c r="D73">
+      <c r="D81">
         <v>50</v>
       </c>
-      <c r="E73">
-        <v>1578.586</v>
-      </c>
-      <c r="F73">
-        <v>588.36400000000003</v>
-      </c>
-      <c r="G73">
-        <v>990.22</v>
-      </c>
-      <c r="H73">
-        <v>79.254000000000005</v>
-      </c>
-      <c r="I73">
-        <v>113.544</v>
-      </c>
-      <c r="J73">
-        <v>34.28</v>
-      </c>
-      <c r="K73">
-        <v>63.201999999999998</v>
-      </c>
-      <c r="L73">
-        <v>87.888000000000005</v>
-      </c>
-      <c r="M73">
-        <v>24.68</v>
-      </c>
-      <c r="N73">
-        <v>28.734000000000002</v>
-      </c>
-      <c r="O73">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74">
+      <c r="E81">
+        <v>1578.723</v>
+      </c>
+      <c r="F81">
+        <v>588.45500000000004</v>
+      </c>
+      <c r="G81">
+        <v>990.26</v>
+      </c>
+      <c r="H81">
+        <v>79.231999999999999</v>
+      </c>
+      <c r="I81">
+        <v>113.532</v>
+      </c>
+      <c r="J81">
+        <v>34.29</v>
+      </c>
+      <c r="K81">
+        <v>63.182000000000002</v>
+      </c>
+      <c r="L81">
+        <v>87.92</v>
+      </c>
+      <c r="M81">
+        <v>24.73</v>
+      </c>
+      <c r="N81">
+        <v>28.895</v>
+      </c>
+      <c r="O81">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82">
         <v>166</v>
       </c>
-      <c r="C74">
+      <c r="C82">
         <v>212</v>
       </c>
-      <c r="D74">
+      <c r="D82">
         <v>46</v>
       </c>
-      <c r="E74">
-        <v>1524.4269999999999</v>
-      </c>
-      <c r="F74">
-        <v>577.06200000000001</v>
-      </c>
-      <c r="G74">
-        <v>947.36</v>
-      </c>
-      <c r="H74">
-        <v>80.91</v>
-      </c>
-      <c r="I74">
-        <v>111.833</v>
-      </c>
-      <c r="J74">
-        <v>30.92</v>
-      </c>
-      <c r="K74">
-        <v>64.956999999999994</v>
-      </c>
-      <c r="L74">
-        <v>84.820999999999998</v>
-      </c>
-      <c r="M74">
-        <v>19.86</v>
-      </c>
-      <c r="N74">
-        <v>28.152999999999999</v>
-      </c>
-      <c r="O74">
-        <v>1.218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75">
-        <v>164</v>
-      </c>
-      <c r="C75">
-        <v>201</v>
-      </c>
-      <c r="D75">
-        <v>37</v>
-      </c>
-      <c r="E75">
-        <v>1516.9190000000001</v>
-      </c>
-      <c r="F75">
-        <v>637.45000000000005</v>
-      </c>
-      <c r="G75">
-        <v>879.46</v>
-      </c>
-      <c r="H75">
-        <v>87.308999999999997</v>
-      </c>
-      <c r="I75">
-        <v>119.06</v>
-      </c>
-      <c r="J75">
-        <v>31.75</v>
-      </c>
-      <c r="K75">
-        <v>55.819000000000003</v>
-      </c>
-      <c r="L75">
-        <v>73.212000000000003</v>
-      </c>
-      <c r="M75">
-        <v>17.39</v>
-      </c>
-      <c r="N75">
-        <v>24.623000000000001</v>
-      </c>
-      <c r="O75">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76">
-        <v>165</v>
-      </c>
-      <c r="C76">
-        <v>188</v>
-      </c>
-      <c r="D76">
-        <v>23</v>
-      </c>
-      <c r="E76">
-        <v>1811.7629999999999</v>
-      </c>
-      <c r="F76">
-        <v>819.596</v>
-      </c>
-      <c r="G76">
-        <v>992.16</v>
-      </c>
-      <c r="H76">
-        <v>82.831000000000003</v>
-      </c>
-      <c r="I76">
-        <v>97.968000000000004</v>
-      </c>
-      <c r="J76">
-        <v>15.13</v>
-      </c>
-      <c r="K76">
-        <v>93.245999999999995</v>
-      </c>
-      <c r="L76">
-        <v>120.52200000000001</v>
-      </c>
-      <c r="M76">
-        <v>27.27</v>
-      </c>
-      <c r="N76">
-        <v>46.02</v>
-      </c>
-      <c r="O76">
-        <v>10.867000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77">
-        <v>159</v>
-      </c>
-      <c r="C77">
-        <v>206</v>
-      </c>
-      <c r="D77">
-        <v>47</v>
-      </c>
-      <c r="E77">
-        <v>1563.47</v>
-      </c>
-      <c r="F77">
-        <v>611.83299999999997</v>
-      </c>
-      <c r="G77">
-        <v>951.63</v>
-      </c>
-      <c r="H77">
-        <v>78.882000000000005</v>
-      </c>
-      <c r="I77">
-        <v>113.65300000000001</v>
-      </c>
-      <c r="J77">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="K77">
-        <v>62.075000000000003</v>
-      </c>
-      <c r="L77">
-        <v>85.084999999999994</v>
-      </c>
-      <c r="M77">
-        <v>23</v>
-      </c>
-      <c r="N77">
-        <v>26.172000000000001</v>
-      </c>
-      <c r="O77">
-        <v>1.6240000000000001</v>
+      <c r="E82">
+        <v>1524.7139999999999</v>
+      </c>
+      <c r="F82">
+        <v>577.08000000000004</v>
+      </c>
+      <c r="G82">
+        <v>947.63</v>
+      </c>
+      <c r="H82">
+        <v>80.887</v>
+      </c>
+      <c r="I82">
+        <v>111.821</v>
+      </c>
+      <c r="J82">
+        <v>30.93</v>
+      </c>
+      <c r="K82">
+        <v>64.930999999999997</v>
+      </c>
+      <c r="L82">
+        <v>84.849000000000004</v>
+      </c>
+      <c r="M82">
+        <v>19.91</v>
+      </c>
+      <c r="N82">
+        <v>28.117999999999999</v>
+      </c>
+      <c r="O82">
+        <v>1.056</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="B83">
+        <v>164</v>
+      </c>
+      <c r="C83">
+        <v>201</v>
+      </c>
+      <c r="D83">
+        <v>37</v>
+      </c>
+      <c r="E83">
+        <v>1517.068</v>
+      </c>
+      <c r="F83">
+        <v>637.47500000000002</v>
+      </c>
+      <c r="G83">
+        <v>879.59</v>
+      </c>
+      <c r="H83">
+        <v>87.272999999999996</v>
+      </c>
+      <c r="I83">
+        <v>119.041</v>
+      </c>
+      <c r="J83">
+        <v>31.76</v>
+      </c>
+      <c r="K83">
+        <v>56.985999999999997</v>
+      </c>
+      <c r="L83">
+        <v>74.563999999999993</v>
+      </c>
+      <c r="M83">
+        <v>17.57</v>
+      </c>
+      <c r="N83">
+        <v>24.707999999999998</v>
+      </c>
+      <c r="O83">
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" t="s">
-        <v>9</v>
-      </c>
-      <c r="J84" t="s">
-        <v>10</v>
-      </c>
-      <c r="K84" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84" t="s">
-        <v>12</v>
-      </c>
-      <c r="M84" t="s">
-        <v>13</v>
-      </c>
-      <c r="N84" t="s">
-        <v>14</v>
-      </c>
-      <c r="O84" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="B84">
+        <v>166</v>
+      </c>
+      <c r="C84">
+        <v>189</v>
+      </c>
+      <c r="D84">
+        <v>23</v>
+      </c>
+      <c r="E84">
+        <v>1788.4570000000001</v>
+      </c>
+      <c r="F84">
+        <v>798.25199999999995</v>
+      </c>
+      <c r="G84">
+        <v>990.2</v>
+      </c>
+      <c r="H84">
+        <v>83.721999999999994</v>
+      </c>
+      <c r="I84">
+        <v>98.427000000000007</v>
+      </c>
+      <c r="J84">
+        <v>14.7</v>
+      </c>
+      <c r="K84">
+        <v>94.736000000000004</v>
+      </c>
+      <c r="L84">
+        <v>121.17100000000001</v>
+      </c>
+      <c r="M84">
+        <v>26.43</v>
+      </c>
+      <c r="N84">
+        <v>46.173000000000002</v>
+      </c>
+      <c r="O84">
+        <v>17.187000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B85">
-        <v>431</v>
+        <v>159</v>
       </c>
       <c r="C85">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E85">
-        <v>1406.9369999999999</v>
+        <v>1563.607</v>
       </c>
       <c r="F85">
-        <v>737.39</v>
+        <v>611.77800000000002</v>
       </c>
       <c r="G85">
-        <v>669.54</v>
+        <v>951.82</v>
       </c>
       <c r="H85">
-        <v>64.831000000000003</v>
+        <v>78.850999999999999</v>
       </c>
       <c r="I85">
-        <v>37.866</v>
+        <v>113.63800000000001</v>
       </c>
       <c r="J85">
-        <v>26.96</v>
+        <v>34.78</v>
       </c>
       <c r="K85">
-        <v>6.33</v>
+        <v>62.055</v>
       </c>
       <c r="L85">
-        <v>0.66100000000000003</v>
+        <v>85.123000000000005</v>
       </c>
       <c r="M85">
-        <v>5.66</v>
+        <v>23.06</v>
       </c>
       <c r="N85">
-        <v>45.31</v>
+        <v>26.459</v>
       </c>
       <c r="O85">
-        <v>5.0730000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86">
-        <v>372</v>
-      </c>
-      <c r="C86">
-        <v>384</v>
-      </c>
-      <c r="D86">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>1260.021</v>
-      </c>
-      <c r="F86">
-        <v>953.971</v>
-      </c>
-      <c r="G86">
-        <v>306.04000000000002</v>
-      </c>
-      <c r="H86">
-        <v>47.42</v>
-      </c>
-      <c r="I86">
-        <v>34.988</v>
-      </c>
-      <c r="J86">
-        <v>12.43</v>
-      </c>
-      <c r="K86">
-        <v>10.75</v>
-      </c>
-      <c r="L86">
-        <v>5.8929999999999998</v>
-      </c>
-      <c r="M86">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="N86">
-        <v>48.197000000000003</v>
-      </c>
-      <c r="O86">
-        <v>7.1959999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87">
-        <v>390</v>
-      </c>
-      <c r="C87">
-        <v>406</v>
-      </c>
-      <c r="D87">
-        <v>16</v>
-      </c>
-      <c r="E87">
-        <v>2387.1759999999999</v>
-      </c>
-      <c r="F87">
-        <v>1835.877</v>
-      </c>
-      <c r="G87">
-        <v>551.29</v>
-      </c>
-      <c r="H87">
-        <v>58.173000000000002</v>
-      </c>
-      <c r="I87">
-        <v>43.119</v>
-      </c>
-      <c r="J87">
-        <v>15.05</v>
-      </c>
-      <c r="K87">
-        <v>588.98099999999999</v>
-      </c>
-      <c r="L87">
-        <v>619.76300000000003</v>
-      </c>
-      <c r="M87">
-        <v>30.78</v>
-      </c>
-      <c r="N87">
-        <v>48.164000000000001</v>
-      </c>
-      <c r="O87">
-        <v>6.0839999999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88">
-        <v>370</v>
-      </c>
-      <c r="C88">
-        <v>384</v>
-      </c>
-      <c r="D88">
-        <v>14</v>
-      </c>
-      <c r="E88">
-        <v>1229.6220000000001</v>
-      </c>
-      <c r="F88">
-        <v>862.70699999999999</v>
-      </c>
-      <c r="G88">
-        <v>366.91</v>
-      </c>
-      <c r="H88">
-        <v>49.792000000000002</v>
-      </c>
-      <c r="I88">
-        <v>35.834000000000003</v>
-      </c>
-      <c r="J88">
-        <v>13.95</v>
-      </c>
-      <c r="K88">
-        <v>11.403</v>
-      </c>
-      <c r="L88">
-        <v>6.0949999999999998</v>
-      </c>
-      <c r="M88">
-        <v>5.3</v>
-      </c>
-      <c r="N88">
-        <v>46.491999999999997</v>
-      </c>
-      <c r="O88">
-        <v>4.9470000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89">
-        <v>393</v>
-      </c>
-      <c r="C89">
-        <v>413</v>
-      </c>
-      <c r="D89">
-        <v>20</v>
-      </c>
-      <c r="E89">
-        <v>1290.855</v>
-      </c>
-      <c r="F89">
-        <v>746.53800000000001</v>
-      </c>
-      <c r="G89">
-        <v>544.30999999999995</v>
-      </c>
-      <c r="H89">
-        <v>54.338999999999999</v>
-      </c>
-      <c r="I89">
-        <v>34.131</v>
-      </c>
-      <c r="J89">
-        <v>20.2</v>
-      </c>
-      <c r="K89">
-        <v>7.01</v>
-      </c>
-      <c r="L89">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="M89">
-        <v>4.96</v>
-      </c>
-      <c r="N89">
-        <v>45.963999999999999</v>
-      </c>
-      <c r="O89">
-        <v>4.7590000000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90">
-        <v>342</v>
-      </c>
-      <c r="C90">
-        <v>356</v>
-      </c>
-      <c r="D90">
-        <v>14</v>
-      </c>
-      <c r="E90">
-        <v>1226.788</v>
-      </c>
-      <c r="F90">
-        <v>871.40599999999995</v>
-      </c>
-      <c r="G90">
-        <v>355.38</v>
-      </c>
-      <c r="H90">
-        <v>49.424999999999997</v>
-      </c>
-      <c r="I90">
-        <v>36.67</v>
-      </c>
-      <c r="J90">
-        <v>12.75</v>
-      </c>
-      <c r="K90">
-        <v>220.62799999999999</v>
-      </c>
-      <c r="L90">
-        <v>228.36799999999999</v>
-      </c>
-      <c r="M90">
-        <v>7.74</v>
-      </c>
-      <c r="N90">
-        <v>45.694000000000003</v>
-      </c>
-      <c r="O90">
-        <v>4.24</v>
+        <v>1.4750000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91">
-        <v>389</v>
-      </c>
-      <c r="C91">
-        <v>408</v>
-      </c>
-      <c r="D91">
-        <v>19</v>
-      </c>
-      <c r="E91">
-        <v>2315.2440000000001</v>
-      </c>
-      <c r="F91">
-        <v>1669.5619999999999</v>
-      </c>
-      <c r="G91">
-        <v>645.67999999999995</v>
-      </c>
-      <c r="H91">
-        <v>58.133000000000003</v>
-      </c>
-      <c r="I91">
-        <v>40.356000000000002</v>
-      </c>
-      <c r="J91">
-        <v>17.77</v>
-      </c>
-      <c r="K91">
-        <v>563.77599999999995</v>
-      </c>
-      <c r="L91">
-        <v>598.029</v>
-      </c>
-      <c r="M91">
-        <v>34.25</v>
-      </c>
-      <c r="N91">
-        <v>48.55</v>
-      </c>
-      <c r="O91">
-        <v>4.4779999999999998</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92">
-        <v>387</v>
-      </c>
-      <c r="C92">
-        <v>410</v>
-      </c>
-      <c r="D92">
-        <v>23</v>
-      </c>
-      <c r="E92">
-        <v>2307.181</v>
-      </c>
-      <c r="F92">
-        <v>1452.4</v>
-      </c>
-      <c r="G92">
-        <v>854.78</v>
-      </c>
-      <c r="H92">
-        <v>58.140999999999998</v>
-      </c>
-      <c r="I92">
-        <v>37.682000000000002</v>
-      </c>
-      <c r="J92">
-        <v>20.45</v>
-      </c>
-      <c r="K92">
-        <v>562.69399999999996</v>
-      </c>
-      <c r="L92">
-        <v>602.20799999999997</v>
-      </c>
-      <c r="M92">
-        <v>39.51</v>
-      </c>
-      <c r="N92">
-        <v>55.771999999999998</v>
-      </c>
-      <c r="O92">
-        <v>3.4710000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" t="s">
+        <v>12</v>
+      </c>
+      <c r="M92" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92" t="s">
+        <v>14</v>
+      </c>
+      <c r="O92" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B93">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="C93">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93">
+        <v>1406.9949999999999</v>
+      </c>
+      <c r="F93">
+        <v>737.22500000000002</v>
+      </c>
+      <c r="G93">
+        <v>669.76</v>
+      </c>
+      <c r="H93">
+        <v>64.884</v>
+      </c>
+      <c r="I93">
+        <v>37.890999999999998</v>
+      </c>
+      <c r="J93">
+        <v>26.99</v>
+      </c>
+      <c r="K93">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="L93">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="M93">
+        <v>5.66</v>
+      </c>
+      <c r="N93">
+        <v>45.231000000000002</v>
+      </c>
+      <c r="O93">
+        <v>4.9139999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94">
+        <v>372</v>
+      </c>
+      <c r="C94">
+        <v>384</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>1260.1569999999999</v>
+      </c>
+      <c r="F94">
+        <v>953.91600000000005</v>
+      </c>
+      <c r="G94">
+        <v>306.24</v>
+      </c>
+      <c r="H94">
+        <v>47.454999999999998</v>
+      </c>
+      <c r="I94">
+        <v>35.012</v>
+      </c>
+      <c r="J94">
+        <v>12.44</v>
+      </c>
+      <c r="K94">
+        <v>10.776999999999999</v>
+      </c>
+      <c r="L94">
+        <v>5.9039999999999999</v>
+      </c>
+      <c r="M94">
+        <v>4.87</v>
+      </c>
+      <c r="N94">
+        <v>47.954000000000001</v>
+      </c>
+      <c r="O94">
+        <v>7.0679999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>390</v>
+      </c>
+      <c r="C95">
+        <v>406</v>
+      </c>
+      <c r="D95">
         <v>16</v>
       </c>
-      <c r="E93">
-        <v>1254.8140000000001</v>
-      </c>
-      <c r="F93">
-        <v>793.56500000000005</v>
-      </c>
-      <c r="G93">
-        <v>461.24</v>
-      </c>
-      <c r="H93">
-        <v>49.781999999999996</v>
-      </c>
-      <c r="I93">
-        <v>33.731000000000002</v>
-      </c>
-      <c r="J93">
-        <v>16.05</v>
-      </c>
-      <c r="K93">
-        <v>12.098000000000001</v>
-      </c>
-      <c r="L93">
-        <v>7.2779999999999996</v>
-      </c>
-      <c r="M93">
-        <v>4.82</v>
-      </c>
-      <c r="N93">
-        <v>46.965000000000003</v>
-      </c>
-      <c r="O93">
-        <v>8.0069999999999997</v>
+      <c r="E95">
+        <v>2387.4070000000002</v>
+      </c>
+      <c r="F95">
+        <v>1836.153</v>
+      </c>
+      <c r="G95">
+        <v>551.25</v>
+      </c>
+      <c r="H95">
+        <v>58.206000000000003</v>
+      </c>
+      <c r="I95">
+        <v>43.156999999999996</v>
+      </c>
+      <c r="J95">
+        <v>15.04</v>
+      </c>
+      <c r="K95">
+        <v>588.90700000000004</v>
+      </c>
+      <c r="L95">
+        <v>619.69500000000005</v>
+      </c>
+      <c r="M95">
+        <v>30.78</v>
+      </c>
+      <c r="N95">
+        <v>48.151000000000003</v>
+      </c>
+      <c r="O95">
+        <v>5.9119999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>370</v>
+      </c>
+      <c r="C96">
+        <v>384</v>
+      </c>
+      <c r="D96">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>1229.53</v>
+      </c>
+      <c r="F96">
+        <v>862.84400000000005</v>
+      </c>
+      <c r="G96">
+        <v>366.68</v>
+      </c>
+      <c r="H96">
+        <v>49.823999999999998</v>
+      </c>
+      <c r="I96">
+        <v>35.863999999999997</v>
+      </c>
+      <c r="J96">
+        <v>13.96</v>
+      </c>
+      <c r="K96">
+        <v>11.443</v>
+      </c>
+      <c r="L96">
+        <v>6.1420000000000003</v>
+      </c>
+      <c r="M96">
+        <v>5.3</v>
+      </c>
+      <c r="N96">
+        <v>46.567</v>
+      </c>
+      <c r="O96">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>393</v>
+      </c>
+      <c r="C97">
+        <v>413</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>1290.694</v>
+      </c>
+      <c r="F97">
+        <v>746.44600000000003</v>
+      </c>
+      <c r="G97">
+        <v>544.24</v>
+      </c>
+      <c r="H97">
+        <v>54.377000000000002</v>
+      </c>
+      <c r="I97">
+        <v>34.155000000000001</v>
+      </c>
+      <c r="J97">
+        <v>20.22</v>
+      </c>
+      <c r="K97">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="L97">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="M97">
+        <v>4.97</v>
+      </c>
+      <c r="N97">
+        <v>45.677</v>
+      </c>
+      <c r="O97">
+        <v>4.6079999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98">
+        <v>343</v>
+      </c>
+      <c r="C98">
+        <v>357</v>
+      </c>
+      <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>1224.8040000000001</v>
+      </c>
+      <c r="F98">
+        <v>875.31799999999998</v>
+      </c>
+      <c r="G98">
+        <v>349.48</v>
+      </c>
+      <c r="H98">
+        <v>48.426000000000002</v>
+      </c>
+      <c r="I98">
+        <v>35.917999999999999</v>
+      </c>
+      <c r="J98">
+        <v>12.5</v>
+      </c>
+      <c r="K98">
+        <v>221.23099999999999</v>
+      </c>
+      <c r="L98">
+        <v>228.76</v>
+      </c>
+      <c r="M98">
+        <v>7.52</v>
+      </c>
+      <c r="N98">
+        <v>45.823</v>
+      </c>
+      <c r="O98">
+        <v>7.5490000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B99">
+        <v>389</v>
+      </c>
+      <c r="C99">
+        <v>408</v>
+      </c>
+      <c r="D99">
+        <v>19</v>
+      </c>
+      <c r="E99">
+        <v>2315.3020000000001</v>
+      </c>
+      <c r="F99">
+        <v>1670.059</v>
+      </c>
+      <c r="G99">
+        <v>645.24</v>
+      </c>
+      <c r="H99">
+        <v>58.177</v>
+      </c>
+      <c r="I99">
+        <v>40.384</v>
+      </c>
+      <c r="J99">
+        <v>17.79</v>
+      </c>
+      <c r="K99">
+        <v>563.726</v>
+      </c>
+      <c r="L99">
+        <v>597.99199999999996</v>
+      </c>
+      <c r="M99">
+        <v>34.26</v>
+      </c>
+      <c r="N99">
+        <v>48.185000000000002</v>
+      </c>
+      <c r="O99">
+        <v>4.3230000000000004</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" t="s">
-        <v>9</v>
-      </c>
-      <c r="J100" t="s">
-        <v>10</v>
-      </c>
-      <c r="K100" t="s">
-        <v>11</v>
-      </c>
-      <c r="L100" t="s">
-        <v>12</v>
-      </c>
-      <c r="M100" t="s">
-        <v>13</v>
-      </c>
-      <c r="N100" t="s">
-        <v>14</v>
-      </c>
-      <c r="O100" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="B100">
+        <v>387</v>
+      </c>
+      <c r="C100">
+        <v>410</v>
+      </c>
+      <c r="D100">
+        <v>23</v>
+      </c>
+      <c r="E100">
+        <v>2307.1120000000001</v>
+      </c>
+      <c r="F100">
+        <v>1452.576</v>
+      </c>
+      <c r="G100">
+        <v>854.53</v>
+      </c>
+      <c r="H100">
+        <v>58.162999999999997</v>
+      </c>
+      <c r="I100">
+        <v>37.701000000000001</v>
+      </c>
+      <c r="J100">
+        <v>20.46</v>
+      </c>
+      <c r="K100">
+        <v>562.63099999999997</v>
+      </c>
+      <c r="L100">
+        <v>602.16999999999996</v>
+      </c>
+      <c r="M100">
+        <v>39.53</v>
+      </c>
+      <c r="N100">
+        <v>55.914999999999999</v>
+      </c>
+      <c r="O100">
+        <v>3.379</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B101">
-        <v>508</v>
+        <v>381</v>
       </c>
       <c r="C101">
-        <v>540</v>
+        <v>397</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>317.88900000000001</v>
+        <v>1254.905</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>793.61099999999999</v>
       </c>
       <c r="G101">
-        <v>317.88</v>
+        <v>461.29</v>
       </c>
       <c r="H101">
-        <v>4.5730000000000004</v>
+        <v>49.85</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="J101">
-        <v>4.57</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K101">
-        <v>-5.931</v>
+        <v>12.19</v>
       </c>
       <c r="L101">
-        <v>-6.6970000000000001</v>
+        <v>7.2850000000000001</v>
       </c>
       <c r="M101">
-        <v>0.76</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N101">
-        <v>22.478000000000002</v>
+        <v>46.680999999999997</v>
       </c>
       <c r="O101">
-        <v>2.7810000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102">
-        <v>433</v>
-      </c>
-      <c r="C102">
-        <v>466</v>
-      </c>
-      <c r="D102">
-        <v>33</v>
-      </c>
-      <c r="E102">
-        <v>317.63400000000001</v>
-      </c>
-      <c r="F102">
-        <v>2.11</v>
-      </c>
-      <c r="G102">
-        <v>315.52</v>
-      </c>
-      <c r="H102">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>4.63</v>
-      </c>
-      <c r="K102">
-        <v>-5.4870000000000001</v>
-      </c>
-      <c r="L102">
-        <v>-6.452</v>
-      </c>
-      <c r="M102">
-        <v>0.96</v>
-      </c>
-      <c r="N102">
-        <v>22.257000000000001</v>
-      </c>
-      <c r="O102">
-        <v>12.837999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>36</v>
-      </c>
-      <c r="B103">
-        <v>446</v>
-      </c>
-      <c r="C103">
-        <v>459</v>
-      </c>
-      <c r="D103">
+        <v>7.8639999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" t="s">
+        <v>9</v>
+      </c>
+      <c r="J108" t="s">
+        <v>10</v>
+      </c>
+      <c r="K108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108" t="s">
         <v>13</v>
       </c>
-      <c r="E103">
-        <v>301.57400000000001</v>
-      </c>
-      <c r="F103">
-        <v>178.88800000000001</v>
-      </c>
-      <c r="G103">
-        <v>122.68</v>
-      </c>
-      <c r="H103">
-        <v>4.556</v>
-      </c>
-      <c r="I103">
-        <v>1.542</v>
-      </c>
-      <c r="J103">
-        <v>3.01</v>
-      </c>
-      <c r="K103">
-        <v>-2.4049999999999998</v>
-      </c>
-      <c r="L103">
-        <v>-3.2210000000000001</v>
-      </c>
-      <c r="M103">
-        <v>0.81</v>
-      </c>
-      <c r="N103">
-        <v>21.196000000000002</v>
-      </c>
-      <c r="O103">
-        <v>14.794</v>
+      <c r="N108" t="s">
+        <v>14</v>
+      </c>
+      <c r="O108" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B109">
+        <v>508</v>
+      </c>
+      <c r="C109">
+        <v>540</v>
+      </c>
+      <c r="D109">
+        <v>32</v>
+      </c>
+      <c r="E109">
+        <v>318.03500000000003</v>
+      </c>
+      <c r="F109">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G109">
+        <v>318.01</v>
+      </c>
+      <c r="H109">
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>4.58</v>
+      </c>
+      <c r="K109">
+        <v>-5.827</v>
+      </c>
+      <c r="L109">
+        <v>-6.2489999999999997</v>
+      </c>
+      <c r="M109">
+        <v>0.42</v>
+      </c>
+      <c r="N109">
+        <v>22.553999999999998</v>
+      </c>
+      <c r="O109">
+        <v>12.664999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" t="s">
-        <v>9</v>
-      </c>
-      <c r="J110" t="s">
-        <v>10</v>
-      </c>
-      <c r="K110" t="s">
-        <v>11</v>
-      </c>
-      <c r="L110" t="s">
-        <v>12</v>
-      </c>
-      <c r="M110" t="s">
-        <v>13</v>
-      </c>
-      <c r="N110" t="s">
-        <v>14</v>
-      </c>
-      <c r="O110" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>429</v>
+      </c>
+      <c r="C110">
+        <v>462</v>
+      </c>
+      <c r="D110">
+        <v>33</v>
+      </c>
+      <c r="E110">
+        <v>319.56</v>
+      </c>
+      <c r="F110">
+        <v>4.282</v>
+      </c>
+      <c r="G110">
+        <v>315.27</v>
+      </c>
+      <c r="H110">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="K110">
+        <v>-5.3710000000000004</v>
+      </c>
+      <c r="L110">
+        <v>-6.5339999999999998</v>
+      </c>
+      <c r="M110">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N110">
+        <v>21.780999999999999</v>
+      </c>
+      <c r="O110">
+        <v>13.811999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B111">
-        <v>145</v>
+        <v>433</v>
       </c>
       <c r="C111">
-        <v>155</v>
+        <v>466</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E111">
-        <v>1669.722</v>
+        <v>317.77300000000002</v>
       </c>
       <c r="F111">
-        <v>1587.866</v>
+        <v>2.137</v>
       </c>
       <c r="G111">
-        <v>81.849999999999994</v>
+        <v>315.63</v>
       </c>
       <c r="H111">
-        <v>74.45</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I111">
-        <v>89.582999999999998</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>15.13</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K111">
-        <v>29.777000000000001</v>
+        <v>-5.4370000000000003</v>
       </c>
       <c r="L111">
-        <v>35.808</v>
+        <v>-6.407</v>
       </c>
       <c r="M111">
-        <v>6.03</v>
+        <v>0.96</v>
       </c>
       <c r="N111">
-        <v>16.399000000000001</v>
+        <v>22.198</v>
       </c>
       <c r="O111">
-        <v>6.7000000000000004E-2</v>
+        <v>12.885999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B112">
-        <v>155</v>
+        <v>446</v>
       </c>
       <c r="C112">
-        <v>166</v>
+        <v>459</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>1707.36</v>
+        <v>301.666</v>
       </c>
       <c r="F112">
-        <v>1647.643</v>
+        <v>179.166</v>
       </c>
       <c r="G112">
-        <v>59.71</v>
+        <v>122.5</v>
       </c>
       <c r="H112">
-        <v>66.602999999999994</v>
+        <v>4.5679999999999996</v>
       </c>
       <c r="I112">
-        <v>79.084999999999994</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="J112">
-        <v>12.48</v>
+        <v>3.02</v>
       </c>
       <c r="K112">
-        <v>43.402999999999999</v>
+        <v>-2.4119999999999999</v>
       </c>
       <c r="L112">
-        <v>56.868000000000002</v>
+        <v>-3.3330000000000002</v>
       </c>
       <c r="M112">
-        <v>13.46</v>
+        <v>0.92</v>
       </c>
       <c r="N112">
-        <v>17.664000000000001</v>
+        <v>21.379000000000001</v>
       </c>
       <c r="O112">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113">
-        <v>161</v>
-      </c>
-      <c r="C113">
-        <v>171</v>
-      </c>
-      <c r="D113">
-        <v>10</v>
-      </c>
-      <c r="E113">
-        <v>2312.165</v>
-      </c>
-      <c r="F113">
-        <v>2281.806</v>
-      </c>
-      <c r="G113">
-        <v>30.35</v>
-      </c>
-      <c r="H113">
-        <v>64.95</v>
-      </c>
-      <c r="I113">
-        <v>74.05</v>
-      </c>
-      <c r="J113">
-        <v>9.09</v>
-      </c>
-      <c r="K113">
-        <v>92.09</v>
-      </c>
-      <c r="L113">
-        <v>113.166</v>
-      </c>
-      <c r="M113">
-        <v>21.07</v>
-      </c>
-      <c r="N113">
-        <v>9.1170000000000009</v>
-      </c>
-      <c r="O113">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114">
-        <v>155</v>
-      </c>
-      <c r="C114">
-        <v>165</v>
-      </c>
-      <c r="D114">
-        <v>10</v>
-      </c>
-      <c r="E114">
-        <v>1848.1469999999999</v>
-      </c>
-      <c r="F114">
-        <v>1797.954</v>
-      </c>
-      <c r="G114">
-        <v>50.19</v>
-      </c>
-      <c r="H114">
-        <v>68.197999999999993</v>
-      </c>
-      <c r="I114">
-        <v>79.25</v>
-      </c>
-      <c r="J114">
-        <v>11.05</v>
-      </c>
-      <c r="K114">
-        <v>52.591000000000001</v>
-      </c>
-      <c r="L114">
-        <v>67.093000000000004</v>
-      </c>
-      <c r="M114">
-        <v>14.5</v>
-      </c>
-      <c r="N114">
-        <v>9.93</v>
-      </c>
-      <c r="O114">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115">
-        <v>161</v>
-      </c>
-      <c r="C115">
-        <v>172</v>
-      </c>
-      <c r="D115">
-        <v>11</v>
-      </c>
-      <c r="E115">
-        <v>2320.6590000000001</v>
-      </c>
-      <c r="F115">
-        <v>2291.2049999999999</v>
-      </c>
-      <c r="G115">
-        <v>29.45</v>
-      </c>
-      <c r="H115">
-        <v>66.617000000000004</v>
-      </c>
-      <c r="I115">
-        <v>76.849999999999994</v>
-      </c>
-      <c r="J115">
-        <v>10.23</v>
-      </c>
-      <c r="K115">
-        <v>92.168999999999997</v>
-      </c>
-      <c r="L115">
-        <v>115.342</v>
-      </c>
-      <c r="M115">
-        <v>23.17</v>
-      </c>
-      <c r="N115">
-        <v>11.935</v>
-      </c>
-      <c r="O115">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>19</v>
-      </c>
-      <c r="B116">
-        <v>160</v>
-      </c>
-      <c r="C116">
-        <v>171</v>
-      </c>
-      <c r="D116">
-        <v>11</v>
-      </c>
-      <c r="E116">
-        <v>2317.1419999999998</v>
-      </c>
-      <c r="F116">
-        <v>2288.4279999999999</v>
-      </c>
-      <c r="G116">
-        <v>28.71</v>
-      </c>
-      <c r="H116">
-        <v>65.792000000000002</v>
-      </c>
-      <c r="I116">
-        <v>75.783000000000001</v>
-      </c>
-      <c r="J116">
-        <v>9.99</v>
-      </c>
-      <c r="K116">
-        <v>92.295000000000002</v>
-      </c>
-      <c r="L116">
-        <v>115.523</v>
-      </c>
-      <c r="M116">
-        <v>23.22</v>
-      </c>
-      <c r="N116">
-        <v>11.292999999999999</v>
-      </c>
-      <c r="O116">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117">
-        <v>159</v>
-      </c>
-      <c r="C117">
-        <v>170</v>
-      </c>
-      <c r="D117">
-        <v>11</v>
-      </c>
-      <c r="E117">
-        <v>2322.3000000000002</v>
-      </c>
-      <c r="F117">
-        <v>2293.3249999999998</v>
-      </c>
-      <c r="G117">
-        <v>28.97</v>
-      </c>
-      <c r="H117">
-        <v>66.022999999999996</v>
-      </c>
-      <c r="I117">
-        <v>76.304000000000002</v>
-      </c>
-      <c r="J117">
-        <v>10.28</v>
-      </c>
-      <c r="K117">
-        <v>91.787999999999997</v>
-      </c>
-      <c r="L117">
-        <v>114.973</v>
-      </c>
-      <c r="M117">
-        <v>23.18</v>
-      </c>
-      <c r="N117">
-        <v>11.47</v>
-      </c>
-      <c r="O117">
-        <v>0.155</v>
+        <v>14.670999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118">
-        <v>143</v>
-      </c>
-      <c r="C118">
-        <v>154</v>
-      </c>
-      <c r="D118">
-        <v>11</v>
-      </c>
-      <c r="E118">
-        <v>1578.9259999999999</v>
-      </c>
-      <c r="F118">
-        <v>1516.5119999999999</v>
-      </c>
-      <c r="G118">
-        <v>62.41</v>
-      </c>
-      <c r="H118">
-        <v>60.436999999999998</v>
-      </c>
-      <c r="I118">
-        <v>72.563000000000002</v>
-      </c>
-      <c r="J118">
-        <v>12.12</v>
-      </c>
-      <c r="K118">
-        <v>37.048000000000002</v>
-      </c>
-      <c r="L118">
-        <v>48.933999999999997</v>
-      </c>
-      <c r="M118">
-        <v>11.88</v>
-      </c>
-      <c r="N118">
-        <v>11.257</v>
-      </c>
-      <c r="O118">
-        <v>9.5000000000000001E-2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>22</v>
-      </c>
-      <c r="B119">
-        <v>156</v>
-      </c>
-      <c r="C119">
-        <v>167</v>
-      </c>
-      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" t="s">
+        <v>9</v>
+      </c>
+      <c r="J119" t="s">
+        <v>10</v>
+      </c>
+      <c r="K119" t="s">
         <v>11</v>
       </c>
-      <c r="E119">
-        <v>2265.5329999999999</v>
-      </c>
-      <c r="F119">
-        <v>2233.0549999999998</v>
-      </c>
-      <c r="G119">
-        <v>32.47</v>
-      </c>
-      <c r="H119">
-        <v>63.725999999999999</v>
-      </c>
-      <c r="I119">
-        <v>74.212000000000003</v>
-      </c>
-      <c r="J119">
-        <v>10.48</v>
-      </c>
-      <c r="K119">
-        <v>85.769000000000005</v>
-      </c>
-      <c r="L119">
-        <v>108.173</v>
-      </c>
-      <c r="M119">
-        <v>22.4</v>
-      </c>
-      <c r="N119">
-        <v>16.591999999999999</v>
-      </c>
-      <c r="O119">
-        <v>9.1999999999999998E-2</v>
+      <c r="L119" t="s">
+        <v>12</v>
+      </c>
+      <c r="M119" t="s">
+        <v>13</v>
+      </c>
+      <c r="N119" t="s">
+        <v>14</v>
+      </c>
+      <c r="O119" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B120">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C120">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>1936.4069999999999</v>
+        <v>1669.722</v>
       </c>
       <c r="F120">
-        <v>1895.4179999999999</v>
+        <v>1587.866</v>
       </c>
       <c r="G120">
-        <v>40.98</v>
+        <v>81.849999999999994</v>
       </c>
       <c r="H120">
-        <v>65.102999999999994</v>
+        <v>74.45</v>
       </c>
       <c r="I120">
-        <v>75.992000000000004</v>
+        <v>89.582999999999998</v>
       </c>
       <c r="J120">
-        <v>10.88</v>
+        <v>15.13</v>
       </c>
       <c r="K120">
-        <v>61.243000000000002</v>
+        <v>29.777000000000001</v>
       </c>
       <c r="L120">
-        <v>79.254000000000005</v>
+        <v>35.808</v>
       </c>
       <c r="M120">
-        <v>18.010000000000002</v>
+        <v>6.03</v>
       </c>
       <c r="N120">
-        <v>13.233000000000001</v>
+        <v>16.399000000000001</v>
       </c>
       <c r="O120">
-        <v>0.11600000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B121">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C121">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D121">
         <v>11</v>
       </c>
       <c r="E121">
-        <v>1675.2090000000001</v>
+        <v>1707.36</v>
       </c>
       <c r="F121">
-        <v>1614.7940000000001</v>
+        <v>1647.643</v>
       </c>
       <c r="G121">
-        <v>60.41</v>
+        <v>59.71</v>
       </c>
       <c r="H121">
-        <v>63.082000000000001</v>
+        <v>66.602999999999994</v>
       </c>
       <c r="I121">
-        <v>75.489000000000004</v>
+        <v>79.084999999999994</v>
       </c>
       <c r="J121">
-        <v>12.4</v>
+        <v>12.48</v>
       </c>
       <c r="K121">
-        <v>42.054000000000002</v>
+        <v>43.402999999999999</v>
       </c>
       <c r="L121">
-        <v>55.15</v>
+        <v>56.868000000000002</v>
       </c>
       <c r="M121">
-        <v>13.09</v>
+        <v>13.46</v>
       </c>
       <c r="N121">
-        <v>17.521000000000001</v>
+        <v>17.664000000000001</v>
       </c>
       <c r="O121">
-        <v>0.04</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B122">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C122">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>2674.2869999999998</v>
+        <v>2312.165</v>
       </c>
       <c r="F122">
-        <v>2649.3240000000001</v>
+        <v>2281.806</v>
       </c>
       <c r="G122">
-        <v>24.96</v>
+        <v>30.35</v>
       </c>
       <c r="H122">
-        <v>75.551000000000002</v>
+        <v>64.95</v>
       </c>
       <c r="I122">
-        <v>85.799000000000007</v>
+        <v>74.05</v>
       </c>
       <c r="J122">
-        <v>10.24</v>
+        <v>9.09</v>
       </c>
       <c r="K122">
-        <v>113.71299999999999</v>
+        <v>92.09</v>
       </c>
       <c r="L122">
-        <v>141.12</v>
+        <v>113.166</v>
       </c>
       <c r="M122">
-        <v>27.4</v>
+        <v>21.07</v>
       </c>
       <c r="N122">
-        <v>15.468</v>
+        <v>9.1170000000000009</v>
       </c>
       <c r="O122">
-        <v>7.9000000000000001E-2</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B123">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C123">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D123">
         <v>10</v>
       </c>
       <c r="E123">
-        <v>2287.453</v>
+        <v>1848.1469999999999</v>
       </c>
       <c r="F123">
-        <v>2256.5189999999998</v>
+        <v>1797.954</v>
       </c>
       <c r="G123">
-        <v>30.93</v>
+        <v>50.19</v>
       </c>
       <c r="H123">
-        <v>63.808</v>
+        <v>68.197999999999993</v>
       </c>
       <c r="I123">
-        <v>72.882000000000005</v>
+        <v>79.25</v>
       </c>
       <c r="J123">
-        <v>9.07</v>
+        <v>11.05</v>
       </c>
       <c r="K123">
-        <v>89.772000000000006</v>
+        <v>52.591000000000001</v>
       </c>
       <c r="L123">
-        <v>110.645</v>
+        <v>67.093000000000004</v>
       </c>
       <c r="M123">
-        <v>20.87</v>
+        <v>14.5</v>
       </c>
       <c r="N123">
-        <v>10.061</v>
+        <v>9.93</v>
       </c>
       <c r="O123">
-        <v>0.1</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B124">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C124">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D124">
         <v>11</v>
       </c>
       <c r="E124">
-        <v>2633.7539999999999</v>
+        <v>2320.6590000000001</v>
       </c>
       <c r="F124">
-        <v>2607.194</v>
+        <v>2291.2049999999999</v>
       </c>
       <c r="G124">
-        <v>26.55</v>
+        <v>29.45</v>
       </c>
       <c r="H124">
-        <v>72.551000000000002</v>
+        <v>66.617000000000004</v>
       </c>
       <c r="I124">
-        <v>82.741</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="J124">
-        <v>10.18</v>
+        <v>10.23</v>
       </c>
       <c r="K124">
-        <v>109.10299999999999</v>
+        <v>92.168999999999997</v>
       </c>
       <c r="L124">
-        <v>136.05600000000001</v>
+        <v>115.342</v>
       </c>
       <c r="M124">
-        <v>26.95</v>
+        <v>23.17</v>
       </c>
       <c r="N124">
-        <v>19.766999999999999</v>
+        <v>11.935</v>
       </c>
       <c r="O124">
-        <v>7.4999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B125">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C125">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D125">
         <v>11</v>
       </c>
       <c r="E125">
-        <v>1894.625</v>
+        <v>2317.1419999999998</v>
       </c>
       <c r="F125">
-        <v>1813.13</v>
+        <v>2288.4279999999999</v>
       </c>
       <c r="G125">
-        <v>81.489999999999995</v>
+        <v>28.71</v>
       </c>
       <c r="H125">
-        <v>85.325999999999993</v>
+        <v>65.792000000000002</v>
       </c>
       <c r="I125">
-        <v>103.80500000000001</v>
+        <v>75.783000000000001</v>
       </c>
       <c r="J125">
-        <v>18.47</v>
+        <v>9.99</v>
       </c>
       <c r="K125">
-        <v>31.391999999999999</v>
+        <v>92.295000000000002</v>
       </c>
       <c r="L125">
-        <v>39.99</v>
+        <v>115.523</v>
       </c>
       <c r="M125">
-        <v>8.59</v>
+        <v>23.22</v>
       </c>
       <c r="N125">
-        <v>20.504000000000001</v>
+        <v>11.292999999999999</v>
       </c>
       <c r="O125">
-        <v>0.14699999999999999</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B126">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C126">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D126">
         <v>11</v>
       </c>
       <c r="E126">
-        <v>1657.4749999999999</v>
+        <v>2322.3000000000002</v>
       </c>
       <c r="F126">
-        <v>1597.335</v>
+        <v>2293.3249999999998</v>
       </c>
       <c r="G126">
-        <v>60.13</v>
+        <v>28.97</v>
       </c>
       <c r="H126">
-        <v>62.642000000000003</v>
+        <v>66.022999999999996</v>
       </c>
       <c r="I126">
-        <v>74.962999999999994</v>
+        <v>76.304000000000002</v>
       </c>
       <c r="J126">
-        <v>12.32</v>
+        <v>10.28</v>
       </c>
       <c r="K126">
-        <v>40.25</v>
+        <v>91.787999999999997</v>
       </c>
       <c r="L126">
-        <v>53.188000000000002</v>
+        <v>114.973</v>
       </c>
       <c r="M126">
-        <v>12.93</v>
+        <v>23.18</v>
       </c>
       <c r="N126">
-        <v>18.36</v>
+        <v>11.47</v>
       </c>
       <c r="O126">
-        <v>0.153</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B127">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C127">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D127">
         <v>11</v>
       </c>
       <c r="E127">
-        <v>2059.444</v>
+        <v>1578.9259999999999</v>
       </c>
       <c r="F127">
-        <v>2015</v>
+        <v>1516.5119999999999</v>
       </c>
       <c r="G127">
-        <v>44.44</v>
+        <v>62.41</v>
       </c>
       <c r="H127">
-        <v>71.036000000000001</v>
+        <v>60.436999999999998</v>
       </c>
       <c r="I127">
-        <v>83.084000000000003</v>
+        <v>72.563000000000002</v>
       </c>
       <c r="J127">
-        <v>12.04</v>
+        <v>12.12</v>
       </c>
       <c r="K127">
-        <v>62.713999999999999</v>
+        <v>37.048000000000002</v>
       </c>
       <c r="L127">
-        <v>81.608000000000004</v>
+        <v>48.933999999999997</v>
       </c>
       <c r="M127">
-        <v>18.89</v>
+        <v>11.88</v>
       </c>
       <c r="N127">
-        <v>20.222000000000001</v>
+        <v>11.257</v>
       </c>
       <c r="O127">
-        <v>0.122</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B128">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C128">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D128">
         <v>11</v>
       </c>
       <c r="E128">
-        <v>2315.9549999999999</v>
+        <v>2265.5329999999999</v>
       </c>
       <c r="F128">
-        <v>2288.1959999999999</v>
+        <v>2233.0549999999998</v>
       </c>
       <c r="G128">
-        <v>27.75</v>
+        <v>32.47</v>
       </c>
       <c r="H128">
-        <v>65.584000000000003</v>
+        <v>63.725999999999999</v>
       </c>
       <c r="I128">
-        <v>75.403999999999996</v>
+        <v>74.212000000000003</v>
       </c>
       <c r="J128">
-        <v>9.81</v>
+        <v>10.48</v>
       </c>
       <c r="K128">
-        <v>89.375</v>
+        <v>85.769000000000005</v>
       </c>
       <c r="L128">
-        <v>112.694</v>
+        <v>108.173</v>
       </c>
       <c r="M128">
-        <v>23.31</v>
+        <v>22.4</v>
       </c>
       <c r="N128">
-        <v>12.997999999999999</v>
+        <v>16.591999999999999</v>
       </c>
       <c r="O128">
-        <v>3.4000000000000002E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B129">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C129">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="D129">
         <v>11</v>
       </c>
       <c r="E129">
-        <v>2650.058</v>
+        <v>1936.4069999999999</v>
       </c>
       <c r="F129">
-        <v>2632.7809999999999</v>
+        <v>1895.4179999999999</v>
       </c>
       <c r="G129">
-        <v>17.27</v>
+        <v>40.98</v>
       </c>
       <c r="H129">
-        <v>86.150999999999996</v>
+        <v>65.102999999999994</v>
       </c>
       <c r="I129">
-        <v>94.650999999999996</v>
+        <v>75.992000000000004</v>
       </c>
       <c r="J129">
-        <v>8.5</v>
+        <v>10.88</v>
       </c>
       <c r="K129">
-        <v>141.42400000000001</v>
+        <v>61.243000000000002</v>
       </c>
       <c r="L129">
-        <v>169.19200000000001</v>
+        <v>79.254000000000005</v>
       </c>
       <c r="M129">
-        <v>27.76</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="N129">
-        <v>12.840999999999999</v>
+        <v>13.233000000000001</v>
       </c>
       <c r="O129">
-        <v>8.4000000000000005E-2</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B130">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C130">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D130">
         <v>11</v>
       </c>
       <c r="E130">
-        <v>1867.777</v>
+        <v>1675.2090000000001</v>
       </c>
       <c r="F130">
-        <v>1795.7539999999999</v>
+        <v>1614.7940000000001</v>
       </c>
       <c r="G130">
-        <v>72.02</v>
+        <v>60.41</v>
       </c>
       <c r="H130">
-        <v>78.75</v>
+        <v>63.082000000000001</v>
       </c>
       <c r="I130">
-        <v>94.9</v>
+        <v>75.489000000000004</v>
       </c>
       <c r="J130">
-        <v>16.149999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="K130">
-        <v>39.085000000000001</v>
+        <v>42.054000000000002</v>
       </c>
       <c r="L130">
-        <v>51.003</v>
+        <v>55.15</v>
       </c>
       <c r="M130">
-        <v>11.91</v>
+        <v>13.09</v>
       </c>
       <c r="N130">
-        <v>14.727</v>
+        <v>17.521000000000001</v>
       </c>
       <c r="O130">
-        <v>0.186</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B131">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C131">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D131">
         <v>11</v>
       </c>
       <c r="E131">
-        <v>2286.3879999999999</v>
+        <v>2674.2869999999998</v>
       </c>
       <c r="F131">
-        <v>2255</v>
+        <v>2649.3240000000001</v>
       </c>
       <c r="G131">
-        <v>31.38</v>
+        <v>24.96</v>
       </c>
       <c r="H131">
-        <v>64.817999999999998</v>
+        <v>75.551000000000002</v>
       </c>
       <c r="I131">
-        <v>74.923000000000002</v>
+        <v>85.799000000000007</v>
       </c>
       <c r="J131">
-        <v>10.1</v>
+        <v>10.24</v>
       </c>
       <c r="K131">
-        <v>87.596000000000004</v>
+        <v>113.71299999999999</v>
       </c>
       <c r="L131">
-        <v>110.38</v>
+        <v>141.12</v>
       </c>
       <c r="M131">
-        <v>22.78</v>
+        <v>27.4</v>
       </c>
       <c r="N131">
-        <v>17.864000000000001</v>
+        <v>15.468</v>
       </c>
       <c r="O131">
-        <v>3.9E-2</v>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132">
+        <v>161</v>
+      </c>
+      <c r="C132">
+        <v>171</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>2287.453</v>
+      </c>
+      <c r="F132">
+        <v>2256.5189999999998</v>
+      </c>
+      <c r="G132">
+        <v>30.93</v>
+      </c>
+      <c r="H132">
+        <v>63.808</v>
+      </c>
+      <c r="I132">
+        <v>72.882000000000005</v>
+      </c>
+      <c r="J132">
+        <v>9.07</v>
+      </c>
+      <c r="K132">
+        <v>89.772000000000006</v>
+      </c>
+      <c r="L132">
+        <v>110.645</v>
+      </c>
+      <c r="M132">
+        <v>20.87</v>
+      </c>
+      <c r="N132">
+        <v>10.061</v>
+      </c>
+      <c r="O132">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133">
+        <v>168</v>
+      </c>
+      <c r="C133">
+        <v>179</v>
+      </c>
+      <c r="D133">
+        <v>11</v>
+      </c>
+      <c r="E133">
+        <v>2720.38</v>
+      </c>
+      <c r="F133">
+        <v>2696.0610000000001</v>
+      </c>
+      <c r="G133">
+        <v>24.31</v>
+      </c>
+      <c r="H133">
+        <v>74.882000000000005</v>
+      </c>
+      <c r="I133">
+        <v>85.14</v>
+      </c>
+      <c r="J133">
+        <v>10.25</v>
+      </c>
+      <c r="K133">
+        <v>117.78400000000001</v>
+      </c>
+      <c r="L133">
+        <v>145.721</v>
+      </c>
+      <c r="M133">
+        <v>27.93</v>
+      </c>
+      <c r="N133">
+        <v>14.468</v>
+      </c>
+      <c r="O133">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134">
+        <v>166</v>
+      </c>
+      <c r="C134">
+        <v>177</v>
+      </c>
+      <c r="D134">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>2633.7539999999999</v>
+      </c>
+      <c r="F134">
+        <v>2607.194</v>
+      </c>
+      <c r="G134">
+        <v>26.55</v>
+      </c>
+      <c r="H134">
+        <v>72.551000000000002</v>
+      </c>
+      <c r="I134">
+        <v>82.741</v>
+      </c>
+      <c r="J134">
+        <v>10.18</v>
+      </c>
+      <c r="K134">
+        <v>109.10299999999999</v>
+      </c>
+      <c r="L134">
+        <v>136.05600000000001</v>
+      </c>
+      <c r="M134">
+        <v>26.95</v>
+      </c>
+      <c r="N134">
+        <v>19.766999999999999</v>
+      </c>
+      <c r="O134">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135">
+        <v>150</v>
+      </c>
+      <c r="C135">
+        <v>161</v>
+      </c>
+      <c r="D135">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>1894.652</v>
+      </c>
+      <c r="F135">
+        <v>1813.222</v>
+      </c>
+      <c r="G135">
+        <v>81.430000000000007</v>
+      </c>
+      <c r="H135">
+        <v>85.275999999999996</v>
+      </c>
+      <c r="I135">
+        <v>103.747</v>
+      </c>
+      <c r="J135">
+        <v>18.47</v>
+      </c>
+      <c r="K135">
+        <v>31.416</v>
+      </c>
+      <c r="L135">
+        <v>40.045000000000002</v>
+      </c>
+      <c r="M135">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="N135">
+        <v>20.866</v>
+      </c>
+      <c r="O135">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>35</v>
+      </c>
+      <c r="B136">
+        <v>143</v>
+      </c>
+      <c r="C136">
+        <v>154</v>
+      </c>
+      <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136">
+        <v>1657.383</v>
+      </c>
+      <c r="F136">
+        <v>1597.327</v>
+      </c>
+      <c r="G136">
+        <v>60.05</v>
+      </c>
+      <c r="H136">
+        <v>62.612000000000002</v>
+      </c>
+      <c r="I136">
+        <v>74.929000000000002</v>
+      </c>
+      <c r="J136">
+        <v>12.31</v>
+      </c>
+      <c r="K136">
+        <v>40.207999999999998</v>
+      </c>
+      <c r="L136">
+        <v>53.149000000000001</v>
+      </c>
+      <c r="M136">
+        <v>12.94</v>
+      </c>
+      <c r="N136">
+        <v>18.751000000000001</v>
+      </c>
+      <c r="O136">
+        <v>0.125</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="B137">
+        <v>153</v>
+      </c>
+      <c r="C137">
+        <v>164</v>
+      </c>
+      <c r="D137">
+        <v>11</v>
+      </c>
+      <c r="E137">
+        <v>2059.444</v>
+      </c>
+      <c r="F137">
+        <v>2015</v>
+      </c>
+      <c r="G137">
+        <v>44.44</v>
+      </c>
+      <c r="H137">
+        <v>71.036000000000001</v>
+      </c>
+      <c r="I137">
+        <v>83.084000000000003</v>
+      </c>
+      <c r="J137">
+        <v>12.04</v>
+      </c>
+      <c r="K137">
+        <v>62.713999999999999</v>
+      </c>
+      <c r="L137">
+        <v>81.608000000000004</v>
+      </c>
+      <c r="M137">
+        <v>18.89</v>
+      </c>
+      <c r="N137">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="O137">
+        <v>0.122</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" t="s">
-        <v>4</v>
-      </c>
-      <c r="E138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" t="s">
-        <v>8</v>
-      </c>
-      <c r="I138" t="s">
-        <v>9</v>
-      </c>
-      <c r="J138" t="s">
-        <v>10</v>
-      </c>
-      <c r="K138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138">
+        <v>159</v>
+      </c>
+      <c r="C138">
+        <v>170</v>
+      </c>
+      <c r="D138">
         <v>11</v>
       </c>
-      <c r="L138" t="s">
-        <v>12</v>
-      </c>
-      <c r="M138" t="s">
-        <v>13</v>
-      </c>
-      <c r="N138" t="s">
-        <v>14</v>
-      </c>
-      <c r="O138" t="s">
-        <v>15</v>
+      <c r="E138">
+        <v>2315.9549999999999</v>
+      </c>
+      <c r="F138">
+        <v>2288.1959999999999</v>
+      </c>
+      <c r="G138">
+        <v>27.75</v>
+      </c>
+      <c r="H138">
+        <v>65.584000000000003</v>
+      </c>
+      <c r="I138">
+        <v>75.403999999999996</v>
+      </c>
+      <c r="J138">
+        <v>9.81</v>
+      </c>
+      <c r="K138">
+        <v>89.375</v>
+      </c>
+      <c r="L138">
+        <v>112.694</v>
+      </c>
+      <c r="M138">
+        <v>23.31</v>
+      </c>
+      <c r="N138">
+        <v>12.997999999999999</v>
+      </c>
+      <c r="O138">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B139">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C139">
-        <v>565</v>
+        <v>196</v>
       </c>
       <c r="D139">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>1587.866</v>
+        <v>2650.058</v>
       </c>
       <c r="F139">
-        <v>7208.3289999999997</v>
+        <v>2632.7809999999999</v>
       </c>
       <c r="G139">
-        <v>5620.46</v>
+        <v>17.27</v>
       </c>
       <c r="H139">
-        <v>89.582999999999998</v>
+        <v>86.150999999999996</v>
       </c>
       <c r="I139">
-        <v>618.84500000000003</v>
+        <v>94.650999999999996</v>
       </c>
       <c r="J139">
-        <v>529.26</v>
+        <v>8.5</v>
       </c>
       <c r="K139">
-        <v>35.808</v>
+        <v>141.42400000000001</v>
       </c>
       <c r="L139">
-        <v>1051.4280000000001</v>
+        <v>169.19200000000001</v>
       </c>
       <c r="M139">
-        <v>1015.62</v>
+        <v>27.76</v>
       </c>
       <c r="N139">
-        <v>42.664999999999999</v>
+        <v>12.840999999999999</v>
       </c>
       <c r="O139">
-        <v>2.629</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B140">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C140">
-        <v>545</v>
+        <v>163</v>
       </c>
       <c r="D140">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>1647.643</v>
+        <v>1867.777</v>
       </c>
       <c r="F140">
-        <v>7899.8609999999999</v>
+        <v>1795.7539999999999</v>
       </c>
       <c r="G140">
-        <v>6252.21</v>
+        <v>72.02</v>
       </c>
       <c r="H140">
-        <v>79.084999999999994</v>
+        <v>78.75</v>
       </c>
       <c r="I140">
-        <v>195.30699999999999</v>
+        <v>94.9</v>
       </c>
       <c r="J140">
-        <v>116.22</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="K140">
-        <v>56.868000000000002</v>
+        <v>39.085000000000001</v>
       </c>
       <c r="L140">
-        <v>1379.8009999999999</v>
+        <v>51.003</v>
       </c>
       <c r="M140">
-        <v>1322.93</v>
+        <v>11.91</v>
       </c>
       <c r="N140">
-        <v>48.457999999999998</v>
+        <v>14.727</v>
       </c>
       <c r="O140">
-        <v>4.5209999999999999</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B141">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C141">
-        <v>535</v>
+        <v>168</v>
       </c>
       <c r="D141">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>2281.806</v>
+        <v>2286.3879999999999</v>
       </c>
       <c r="F141">
-        <v>7492.6379999999999</v>
+        <v>2255</v>
       </c>
       <c r="G141">
-        <v>5210.83</v>
+        <v>31.38</v>
       </c>
       <c r="H141">
-        <v>74.05</v>
+        <v>64.817999999999998</v>
       </c>
       <c r="I141">
-        <v>165.255</v>
+        <v>74.923000000000002</v>
       </c>
       <c r="J141">
-        <v>91.2</v>
+        <v>10.1</v>
       </c>
       <c r="K141">
-        <v>113.166</v>
+        <v>87.596000000000004</v>
       </c>
       <c r="L141">
-        <v>1588.818</v>
+        <v>110.38</v>
       </c>
       <c r="M141">
-        <v>1475.65</v>
+        <v>22.78</v>
       </c>
       <c r="N141">
-        <v>37.094999999999999</v>
+        <v>17.864000000000001</v>
       </c>
       <c r="O141">
-        <v>3.9369999999999998</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B142">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C142">
-        <v>594</v>
+        <v>166</v>
       </c>
       <c r="D142">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>1797.954</v>
+        <v>2110.277</v>
       </c>
       <c r="F142">
-        <v>7525.9719999999998</v>
+        <v>2073.672</v>
       </c>
       <c r="G142">
-        <v>5728.01</v>
+        <v>36.6</v>
       </c>
       <c r="H142">
-        <v>79.25</v>
+        <v>66.617000000000004</v>
       </c>
       <c r="I142">
-        <v>214.09200000000001</v>
+        <v>77.349999999999994</v>
       </c>
       <c r="J142">
-        <v>134.84</v>
+        <v>10.73</v>
       </c>
       <c r="K142">
-        <v>67.093000000000004</v>
+        <v>70.234999999999999</v>
       </c>
       <c r="L142">
-        <v>1578.23</v>
+        <v>90.587999999999994</v>
       </c>
       <c r="M142">
-        <v>1511.13</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="N142">
-        <v>37.706000000000003</v>
+        <v>19.977</v>
       </c>
       <c r="O142">
-        <v>3.7170000000000001</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B143">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C143">
-        <v>535</v>
+        <v>175</v>
       </c>
       <c r="D143">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="E143">
-        <v>2288.4279999999999</v>
+        <v>2190.7440000000001</v>
       </c>
       <c r="F143">
-        <v>7475.8329999999996</v>
+        <v>2151.3200000000002</v>
       </c>
       <c r="G143">
-        <v>5187.3999999999996</v>
+        <v>39.42</v>
       </c>
       <c r="H143">
-        <v>75.783000000000001</v>
+        <v>74.650999999999996</v>
       </c>
       <c r="I143">
-        <v>164.31899999999999</v>
+        <v>86.325000000000003</v>
       </c>
       <c r="J143">
-        <v>88.53</v>
+        <v>11.67</v>
       </c>
       <c r="K143">
-        <v>115.523</v>
+        <v>71.998999999999995</v>
       </c>
       <c r="L143">
-        <v>1599.8340000000001</v>
+        <v>92.802999999999997</v>
       </c>
       <c r="M143">
-        <v>1484.31</v>
+        <v>20.8</v>
       </c>
       <c r="N143">
-        <v>35.881</v>
+        <v>20.245000000000001</v>
       </c>
       <c r="O143">
-        <v>5.4589999999999996</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B144">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C144">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="D144">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="E144">
-        <v>2293.3249999999998</v>
+        <v>1948.8889999999999</v>
       </c>
       <c r="F144">
-        <v>7618.674</v>
+        <v>1897.05</v>
       </c>
       <c r="G144">
-        <v>5325.34</v>
+        <v>51.83</v>
       </c>
       <c r="H144">
-        <v>76.304000000000002</v>
+        <v>71.052000000000007</v>
       </c>
       <c r="I144">
-        <v>164.22800000000001</v>
+        <v>84.091999999999999</v>
       </c>
       <c r="J144">
-        <v>87.92</v>
+        <v>13.03</v>
       </c>
       <c r="K144">
-        <v>114.973</v>
+        <v>53.148000000000003</v>
       </c>
       <c r="L144">
-        <v>1688.6769999999999</v>
+        <v>69.884</v>
       </c>
       <c r="M144">
-        <v>1573.7</v>
+        <v>16.73</v>
       </c>
       <c r="N144">
-        <v>35.018999999999998</v>
+        <v>19.823</v>
       </c>
       <c r="O144">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145">
-        <v>177</v>
-      </c>
-      <c r="C145">
-        <v>513</v>
-      </c>
-      <c r="D145">
-        <v>336</v>
-      </c>
-      <c r="E145">
-        <v>2649.3240000000001</v>
-      </c>
-      <c r="F145">
-        <v>7416.5649999999996</v>
-      </c>
-      <c r="G145">
-        <v>4767.24</v>
-      </c>
-      <c r="H145">
-        <v>85.799000000000007</v>
-      </c>
-      <c r="I145">
-        <v>163.643</v>
-      </c>
-      <c r="J145">
-        <v>77.84</v>
-      </c>
-      <c r="K145">
-        <v>141.12</v>
-      </c>
-      <c r="L145">
-        <v>1604.0809999999999</v>
-      </c>
-      <c r="M145">
-        <v>1462.96</v>
-      </c>
-      <c r="N145">
-        <v>32.53</v>
-      </c>
-      <c r="O145">
-        <v>4.8739999999999997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>30</v>
-      </c>
-      <c r="B146">
-        <v>161</v>
-      </c>
-      <c r="C146">
-        <v>558</v>
-      </c>
-      <c r="D146">
-        <v>397</v>
-      </c>
-      <c r="E146">
-        <v>1813.13</v>
-      </c>
-      <c r="F146">
-        <v>7578.1310000000003</v>
-      </c>
-      <c r="G146">
-        <v>5765</v>
-      </c>
-      <c r="H146">
-        <v>103.80500000000001</v>
-      </c>
-      <c r="I146">
-        <v>724.5</v>
-      </c>
-      <c r="J146">
-        <v>620.69000000000005</v>
-      </c>
-      <c r="K146">
-        <v>39.99</v>
-      </c>
-      <c r="L146">
-        <v>1121.6110000000001</v>
-      </c>
-      <c r="M146">
-        <v>1081.6199999999999</v>
-      </c>
-      <c r="N146">
-        <v>38.923000000000002</v>
-      </c>
-      <c r="O146">
-        <v>4.2210000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>38</v>
-      </c>
-      <c r="B147">
-        <v>196</v>
-      </c>
-      <c r="C147">
-        <v>512</v>
-      </c>
-      <c r="D147">
-        <v>316</v>
-      </c>
-      <c r="E147">
-        <v>2632.7809999999999</v>
-      </c>
-      <c r="F147">
-        <v>7386.3959999999997</v>
-      </c>
-      <c r="G147">
-        <v>4753.6099999999997</v>
-      </c>
-      <c r="H147">
-        <v>94.650999999999996</v>
-      </c>
-      <c r="I147">
-        <v>178.81100000000001</v>
-      </c>
-      <c r="J147">
-        <v>84.16</v>
-      </c>
-      <c r="K147">
-        <v>169.19200000000001</v>
-      </c>
-      <c r="L147">
-        <v>1541.28</v>
-      </c>
-      <c r="M147">
-        <v>1372.08</v>
-      </c>
-      <c r="N147">
-        <v>34.067</v>
-      </c>
-      <c r="O147">
-        <v>5.5270000000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>39</v>
-      </c>
-      <c r="B148">
-        <v>163</v>
-      </c>
-      <c r="C148">
-        <v>550</v>
-      </c>
-      <c r="D148">
-        <v>387</v>
-      </c>
-      <c r="E148">
-        <v>1795.7539999999999</v>
-      </c>
-      <c r="F148">
-        <v>7680.8329999999996</v>
-      </c>
-      <c r="G148">
-        <v>5885.07</v>
-      </c>
-      <c r="H148">
-        <v>94.9</v>
-      </c>
-      <c r="I148">
-        <v>516.61199999999997</v>
-      </c>
-      <c r="J148">
-        <v>421.71</v>
-      </c>
-      <c r="K148">
-        <v>51.003</v>
-      </c>
-      <c r="L148">
-        <v>1264.242</v>
-      </c>
-      <c r="M148">
-        <v>1213.23</v>
-      </c>
-      <c r="N148">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="O148">
-        <v>5.2489999999999997</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149">
-        <v>168</v>
-      </c>
-      <c r="C149">
-        <v>518</v>
-      </c>
-      <c r="D149">
-        <v>350</v>
-      </c>
-      <c r="E149">
-        <v>2255</v>
-      </c>
-      <c r="F149">
-        <v>7416.6660000000002</v>
-      </c>
-      <c r="G149">
-        <v>5161.66</v>
-      </c>
-      <c r="H149">
-        <v>74.923000000000002</v>
-      </c>
-      <c r="I149">
-        <v>164.346</v>
-      </c>
-      <c r="J149">
-        <v>89.42</v>
-      </c>
-      <c r="K149">
-        <v>110.38</v>
-      </c>
-      <c r="L149">
-        <v>1512.1189999999999</v>
-      </c>
-      <c r="M149">
-        <v>1401.73</v>
-      </c>
-      <c r="N149">
-        <v>36.444000000000003</v>
-      </c>
-      <c r="O149">
-        <v>4.4219999999999997</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" t="s">
+        <v>9</v>
+      </c>
+      <c r="J151" t="s">
+        <v>10</v>
+      </c>
+      <c r="K151" t="s">
+        <v>11</v>
+      </c>
+      <c r="L151" t="s">
+        <v>12</v>
+      </c>
+      <c r="M151" t="s">
+        <v>13</v>
+      </c>
+      <c r="N151" t="s">
+        <v>14</v>
+      </c>
+      <c r="O151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B152">
+        <v>155</v>
+      </c>
+      <c r="C152">
+        <v>565</v>
+      </c>
+      <c r="D152">
+        <v>410</v>
+      </c>
+      <c r="E152">
+        <v>1587.866</v>
+      </c>
+      <c r="F152">
+        <v>7208.3289999999997</v>
+      </c>
+      <c r="G152">
+        <v>5620.46</v>
+      </c>
+      <c r="H152">
+        <v>89.582999999999998</v>
+      </c>
+      <c r="I152">
+        <v>618.84500000000003</v>
+      </c>
+      <c r="J152">
+        <v>529.26</v>
+      </c>
+      <c r="K152">
+        <v>35.808</v>
+      </c>
+      <c r="L152">
+        <v>1051.4280000000001</v>
+      </c>
+      <c r="M152">
+        <v>1015.62</v>
+      </c>
+      <c r="N152">
+        <v>42.664999999999999</v>
+      </c>
+      <c r="O152">
+        <v>2.629</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>46</v>
+      </c>
+      <c r="B153">
+        <v>166</v>
+      </c>
+      <c r="C153">
+        <v>545</v>
+      </c>
+      <c r="D153">
+        <v>379</v>
+      </c>
+      <c r="E153">
+        <v>1647.643</v>
+      </c>
+      <c r="F153">
+        <v>7899.8609999999999</v>
+      </c>
+      <c r="G153">
+        <v>6252.21</v>
+      </c>
+      <c r="H153">
+        <v>79.084999999999994</v>
+      </c>
+      <c r="I153">
+        <v>195.30699999999999</v>
+      </c>
+      <c r="J153">
+        <v>116.22</v>
+      </c>
+      <c r="K153">
+        <v>56.868000000000002</v>
+      </c>
+      <c r="L153">
+        <v>1379.8009999999999</v>
+      </c>
+      <c r="M153">
+        <v>1322.93</v>
+      </c>
+      <c r="N153">
+        <v>48.457999999999998</v>
+      </c>
+      <c r="O153">
+        <v>4.5209999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154">
+        <v>171</v>
+      </c>
+      <c r="C154">
+        <v>535</v>
+      </c>
+      <c r="D154">
+        <v>364</v>
+      </c>
+      <c r="E154">
+        <v>2281.806</v>
+      </c>
+      <c r="F154">
+        <v>7492.6379999999999</v>
+      </c>
+      <c r="G154">
+        <v>5210.83</v>
+      </c>
+      <c r="H154">
+        <v>74.05</v>
+      </c>
+      <c r="I154">
+        <v>165.255</v>
+      </c>
+      <c r="J154">
+        <v>91.2</v>
+      </c>
+      <c r="K154">
+        <v>113.166</v>
+      </c>
+      <c r="L154">
+        <v>1588.818</v>
+      </c>
+      <c r="M154">
+        <v>1475.65</v>
+      </c>
+      <c r="N154">
+        <v>37.094999999999999</v>
+      </c>
+      <c r="O154">
+        <v>3.9369999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="B155">
+        <v>165</v>
+      </c>
+      <c r="C155">
+        <v>594</v>
+      </c>
+      <c r="D155">
+        <v>429</v>
+      </c>
+      <c r="E155">
+        <v>1797.954</v>
+      </c>
+      <c r="F155">
+        <v>7525.9719999999998</v>
+      </c>
+      <c r="G155">
+        <v>5728.01</v>
+      </c>
+      <c r="H155">
+        <v>79.25</v>
+      </c>
+      <c r="I155">
+        <v>214.09200000000001</v>
+      </c>
+      <c r="J155">
+        <v>134.84</v>
+      </c>
+      <c r="K155">
+        <v>67.093000000000004</v>
+      </c>
+      <c r="L155">
+        <v>1578.23</v>
+      </c>
+      <c r="M155">
+        <v>1511.13</v>
+      </c>
+      <c r="N155">
+        <v>37.706000000000003</v>
+      </c>
+      <c r="O155">
+        <v>3.7170000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" t="s">
-        <v>52</v>
-      </c>
-      <c r="C156" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" t="s">
-        <v>54</v>
-      </c>
-      <c r="E156" t="s">
-        <v>55</v>
-      </c>
-      <c r="F156" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="B156">
+        <v>171</v>
+      </c>
+      <c r="C156">
+        <v>535</v>
+      </c>
+      <c r="D156">
+        <v>364</v>
+      </c>
+      <c r="E156">
+        <v>2288.4279999999999</v>
+      </c>
+      <c r="F156">
+        <v>7475.8329999999996</v>
+      </c>
+      <c r="G156">
+        <v>5187.3999999999996</v>
+      </c>
+      <c r="H156">
+        <v>75.783000000000001</v>
+      </c>
+      <c r="I156">
+        <v>164.31899999999999</v>
+      </c>
+      <c r="J156">
+        <v>88.53</v>
+      </c>
+      <c r="K156">
+        <v>115.523</v>
+      </c>
+      <c r="L156">
+        <v>1599.8340000000001</v>
+      </c>
+      <c r="M156">
+        <v>1484.31</v>
+      </c>
+      <c r="N156">
+        <v>35.881</v>
+      </c>
+      <c r="O156">
+        <v>5.4589999999999996</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B157">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C157">
-        <v>385.423</v>
+        <v>552</v>
       </c>
       <c r="D157">
-        <v>10.561999999999999</v>
+        <v>382</v>
       </c>
       <c r="E157">
-        <v>1.853</v>
+        <v>2293.3249999999998</v>
       </c>
       <c r="F157">
-        <v>28574.77</v>
+        <v>7618.674</v>
+      </c>
+      <c r="G157">
+        <v>5325.34</v>
+      </c>
+      <c r="H157">
+        <v>76.304000000000002</v>
+      </c>
+      <c r="I157">
+        <v>164.22800000000001</v>
+      </c>
+      <c r="J157">
+        <v>87.92</v>
+      </c>
+      <c r="K157">
+        <v>114.973</v>
+      </c>
+      <c r="L157">
+        <v>1688.6769999999999</v>
+      </c>
+      <c r="M157">
+        <v>1573.7</v>
+      </c>
+      <c r="N157">
+        <v>35.018999999999998</v>
+      </c>
+      <c r="O157">
+        <v>5.66</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B158">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="C158">
-        <v>375.55500000000001</v>
+        <v>513</v>
       </c>
       <c r="D158">
-        <v>10.993</v>
+        <v>336</v>
       </c>
       <c r="E158">
-        <v>1.7430000000000001</v>
+        <v>2649.3240000000001</v>
       </c>
       <c r="F158">
-        <v>25687.85</v>
+        <v>7416.5649999999996</v>
+      </c>
+      <c r="G158">
+        <v>4767.24</v>
+      </c>
+      <c r="H158">
+        <v>85.799000000000007</v>
+      </c>
+      <c r="I158">
+        <v>163.643</v>
+      </c>
+      <c r="J158">
+        <v>77.84</v>
+      </c>
+      <c r="K158">
+        <v>141.12</v>
+      </c>
+      <c r="L158">
+        <v>1604.0809999999999</v>
+      </c>
+      <c r="M158">
+        <v>1462.96</v>
+      </c>
+      <c r="N158">
+        <v>32.53</v>
+      </c>
+      <c r="O158">
+        <v>4.8739999999999997</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B159">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="C159">
-        <v>482.5</v>
+        <v>516</v>
       </c>
       <c r="D159">
-        <v>13.286</v>
+        <v>337</v>
       </c>
       <c r="E159">
-        <v>5.8680000000000003</v>
+        <v>2696.0610000000001</v>
       </c>
       <c r="F159">
-        <v>31309.24</v>
+        <v>7495.3519999999999</v>
+      </c>
+      <c r="G159">
+        <v>4799.29</v>
+      </c>
+      <c r="H159">
+        <v>85.14</v>
+      </c>
+      <c r="I159">
+        <v>163.93100000000001</v>
+      </c>
+      <c r="J159">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="K159">
+        <v>145.721</v>
+      </c>
+      <c r="L159">
+        <v>1629.521</v>
+      </c>
+      <c r="M159">
+        <v>1483.8</v>
+      </c>
+      <c r="N159">
+        <v>31.512</v>
+      </c>
+      <c r="O159">
+        <v>4.9859999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160">
+        <v>161</v>
+      </c>
+      <c r="C160">
+        <v>558</v>
+      </c>
+      <c r="D160">
+        <v>397</v>
+      </c>
+      <c r="E160">
+        <v>1813.222</v>
+      </c>
+      <c r="F160">
+        <v>7577.8590000000004</v>
+      </c>
+      <c r="G160">
+        <v>5764.63</v>
+      </c>
+      <c r="H160">
+        <v>103.747</v>
+      </c>
+      <c r="I160">
+        <v>724.5</v>
+      </c>
+      <c r="J160">
+        <v>620.75</v>
+      </c>
+      <c r="K160">
+        <v>40.045000000000002</v>
+      </c>
+      <c r="L160">
+        <v>1121.4690000000001</v>
+      </c>
+      <c r="M160">
+        <v>1081.42</v>
+      </c>
+      <c r="N160">
+        <v>39.133000000000003</v>
+      </c>
+      <c r="O160">
+        <v>4.1509999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161">
+        <v>196</v>
+      </c>
+      <c r="C161">
+        <v>512</v>
+      </c>
+      <c r="D161">
+        <v>316</v>
+      </c>
+      <c r="E161">
+        <v>2632.7809999999999</v>
+      </c>
+      <c r="F161">
+        <v>7386.3959999999997</v>
+      </c>
+      <c r="G161">
+        <v>4753.6099999999997</v>
+      </c>
+      <c r="H161">
+        <v>94.650999999999996</v>
+      </c>
+      <c r="I161">
+        <v>178.81100000000001</v>
+      </c>
+      <c r="J161">
+        <v>84.16</v>
+      </c>
+      <c r="K161">
+        <v>169.19200000000001</v>
+      </c>
+      <c r="L161">
+        <v>1541.28</v>
+      </c>
+      <c r="M161">
+        <v>1372.08</v>
+      </c>
+      <c r="N161">
+        <v>34.067</v>
+      </c>
+      <c r="O161">
+        <v>5.5270000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162">
+        <v>163</v>
+      </c>
+      <c r="C162">
+        <v>550</v>
+      </c>
+      <c r="D162">
+        <v>387</v>
+      </c>
+      <c r="E162">
+        <v>1795.7539999999999</v>
+      </c>
+      <c r="F162">
+        <v>7680.8329999999996</v>
+      </c>
+      <c r="G162">
+        <v>5885.07</v>
+      </c>
+      <c r="H162">
+        <v>94.9</v>
+      </c>
+      <c r="I162">
+        <v>516.61199999999997</v>
+      </c>
+      <c r="J162">
+        <v>421.71</v>
+      </c>
+      <c r="K162">
+        <v>51.003</v>
+      </c>
+      <c r="L162">
+        <v>1264.242</v>
+      </c>
+      <c r="M162">
+        <v>1213.23</v>
+      </c>
+      <c r="N162">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="O162">
+        <v>5.2489999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163">
+        <v>168</v>
+      </c>
+      <c r="C163">
+        <v>518</v>
+      </c>
+      <c r="D163">
+        <v>350</v>
+      </c>
+      <c r="E163">
+        <v>2255</v>
+      </c>
+      <c r="F163">
+        <v>7416.6660000000002</v>
+      </c>
+      <c r="G163">
+        <v>5161.66</v>
+      </c>
+      <c r="H163">
+        <v>74.923000000000002</v>
+      </c>
+      <c r="I163">
+        <v>164.346</v>
+      </c>
+      <c r="J163">
+        <v>89.42</v>
+      </c>
+      <c r="K163">
+        <v>110.38</v>
+      </c>
+      <c r="L163">
+        <v>1512.1189999999999</v>
+      </c>
+      <c r="M163">
+        <v>1401.73</v>
+      </c>
+      <c r="N163">
+        <v>36.444000000000003</v>
+      </c>
+      <c r="O163">
+        <v>4.4219999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" t="s">
+        <v>58</v>
+      </c>
+      <c r="E170" t="s">
+        <v>59</v>
+      </c>
+      <c r="F170" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171">
+        <v>70</v>
+      </c>
+      <c r="C171">
+        <v>385.423</v>
+      </c>
+      <c r="D171">
+        <v>10.561999999999999</v>
+      </c>
+      <c r="E171">
+        <v>1.853</v>
+      </c>
+      <c r="F171">
+        <v>28574.77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172">
+        <v>79</v>
+      </c>
+      <c r="C172">
+        <v>375.55500000000001</v>
+      </c>
+      <c r="D172">
+        <v>10.993</v>
+      </c>
+      <c r="E172">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="F172">
+        <v>25687.85</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <v>81</v>
+      </c>
+      <c r="C173">
+        <v>482.5</v>
+      </c>
+      <c r="D173">
+        <v>13.286</v>
+      </c>
+      <c r="E173">
+        <v>5.8680000000000003</v>
+      </c>
+      <c r="F173">
+        <v>31309.24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>17</v>
       </c>
-      <c r="B160">
+      <c r="B174">
         <v>72</v>
       </c>
-      <c r="C160">
+      <c r="C174">
         <v>335.83300000000003</v>
       </c>
-      <c r="D160">
+      <c r="D174">
         <v>10.273</v>
       </c>
-      <c r="E160">
+      <c r="E174">
         <v>1.5449999999999999</v>
       </c>
-      <c r="F160">
+      <c r="F174">
         <v>22495.759999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>18</v>
       </c>
-      <c r="B161">
+      <c r="B175">
         <v>81</v>
       </c>
-      <c r="C161">
+      <c r="C175">
         <v>489.72199999999998</v>
       </c>
-      <c r="D161">
+      <c r="D175">
         <v>13.488</v>
       </c>
-      <c r="E161">
+      <c r="E175">
         <v>6.0519999999999996</v>
       </c>
-      <c r="F161">
+      <c r="F175">
         <v>31368.43</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>19</v>
       </c>
-      <c r="B162">
+      <c r="B176">
         <v>77</v>
       </c>
-      <c r="C162">
+      <c r="C176">
         <v>456.38799999999998</v>
       </c>
-      <c r="D162">
+      <c r="D176">
         <v>12.725</v>
       </c>
-      <c r="E162">
+      <c r="E176">
         <v>4.7889999999999997</v>
       </c>
-      <c r="F162">
+      <c r="F176">
         <v>30230.400000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163">
-        <v>78</v>
-      </c>
-      <c r="C163">
-        <v>471.48099999999999</v>
-      </c>
-      <c r="D163">
-        <v>13.146000000000001</v>
-      </c>
-      <c r="E163">
-        <v>5.05</v>
-      </c>
-      <c r="F163">
-        <v>30471.31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164">
-        <v>67</v>
-      </c>
-      <c r="C164">
-        <v>321.11099999999999</v>
-      </c>
-      <c r="D164">
-        <v>9.4990000000000006</v>
-      </c>
-      <c r="E164">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="F164">
-        <v>22631.95</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>22</v>
-      </c>
-      <c r="B165">
-        <v>78</v>
-      </c>
-      <c r="C165">
-        <v>465.92599999999999</v>
-      </c>
-      <c r="D165">
-        <v>12.971</v>
-      </c>
-      <c r="E165">
-        <v>5.2489999999999997</v>
-      </c>
-      <c r="F165">
-        <v>30474.03</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>43</v>
-      </c>
-      <c r="B166">
-        <v>70</v>
-      </c>
-      <c r="C166">
-        <v>410.95499999999998</v>
-      </c>
-      <c r="D166">
-        <v>10.986000000000001</v>
-      </c>
-      <c r="E166">
-        <v>3.3340000000000001</v>
-      </c>
-      <c r="F166">
-        <v>30784.02</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167">
-        <v>75</v>
-      </c>
-      <c r="C167">
-        <v>408.37099999999998</v>
-      </c>
-      <c r="D167">
-        <v>12.089</v>
-      </c>
-      <c r="E167">
-        <v>3.1680000000000001</v>
-      </c>
-      <c r="F167">
-        <v>26342.6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>24</v>
-      </c>
-      <c r="B168">
-        <v>76</v>
-      </c>
-      <c r="C168">
-        <v>475.404</v>
-      </c>
-      <c r="D168">
-        <v>12.759</v>
-      </c>
-      <c r="E168">
-        <v>5.8449999999999998</v>
-      </c>
-      <c r="F168">
-        <v>32650.46</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>25</v>
-      </c>
-      <c r="B169">
-        <v>82</v>
-      </c>
-      <c r="C169">
-        <v>472.92899999999997</v>
-      </c>
-      <c r="D169">
-        <v>13.444000000000001</v>
-      </c>
-      <c r="E169">
-        <v>5.9279999999999999</v>
-      </c>
-      <c r="F169">
-        <v>29430.58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>44</v>
-      </c>
-      <c r="B170">
-        <v>69</v>
-      </c>
-      <c r="C170">
-        <v>405.65</v>
-      </c>
-      <c r="D170">
-        <v>11.209</v>
-      </c>
-      <c r="E170">
-        <v>4.1059999999999999</v>
-      </c>
-      <c r="F170">
-        <v>29149.48</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>26</v>
-      </c>
-      <c r="B171">
-        <v>65</v>
-      </c>
-      <c r="C171">
-        <v>309.97500000000002</v>
-      </c>
-      <c r="D171">
-        <v>8.7780000000000005</v>
-      </c>
-      <c r="E171">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="F171">
-        <v>23010.959999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>27</v>
-      </c>
-      <c r="B172">
-        <v>78</v>
-      </c>
-      <c r="C172">
-        <v>469.90699999999998</v>
-      </c>
-      <c r="D172">
-        <v>13.396000000000001</v>
-      </c>
-      <c r="E172">
-        <v>5.1719999999999997</v>
-      </c>
-      <c r="F172">
-        <v>29249.22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>28</v>
-      </c>
-      <c r="B173">
-        <v>77</v>
-      </c>
-      <c r="C173">
-        <v>455.10899999999998</v>
-      </c>
-      <c r="D173">
-        <v>13.118</v>
-      </c>
-      <c r="E173">
-        <v>4.242</v>
-      </c>
-      <c r="F173">
-        <v>28501.99</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>29</v>
-      </c>
-      <c r="B174">
-        <v>64</v>
-      </c>
-      <c r="C174">
-        <v>301.12299999999999</v>
-      </c>
-      <c r="D174">
-        <v>8.6940000000000008</v>
-      </c>
-      <c r="E174">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="F174">
-        <v>21933.52</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>30</v>
-      </c>
-      <c r="B175">
-        <v>71</v>
-      </c>
-      <c r="C175">
-        <v>386.59899999999999</v>
-      </c>
-      <c r="D175">
-        <v>11.52</v>
-      </c>
-      <c r="E175">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="F175">
-        <v>25435.97</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>31</v>
-      </c>
-      <c r="B176">
-        <v>69</v>
-      </c>
-      <c r="C176">
-        <v>321.92700000000002</v>
-      </c>
-      <c r="D176">
-        <v>10.067</v>
-      </c>
-      <c r="E176">
-        <v>1.014</v>
-      </c>
-      <c r="F176">
-        <v>21207.77</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B177">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C177">
-        <v>409.42700000000002</v>
+        <v>471.48099999999999</v>
       </c>
       <c r="D177">
-        <v>11.01</v>
+        <v>13.146000000000001</v>
       </c>
       <c r="E177">
-        <v>3.5350000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="F177">
-        <v>30461.18</v>
+        <v>30471.31</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B178">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C178">
-        <v>446.86</v>
+        <v>321.11099999999999</v>
       </c>
       <c r="D178">
-        <v>12.884</v>
+        <v>9.4990000000000006</v>
       </c>
       <c r="E178">
-        <v>4.2220000000000004</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="F178">
-        <v>28365.47</v>
+        <v>22631.95</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B179">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C179">
-        <v>468.73700000000002</v>
+        <v>465.92599999999999</v>
       </c>
       <c r="D179">
-        <v>12.723000000000001</v>
+        <v>12.971</v>
       </c>
       <c r="E179">
-        <v>5.5449999999999999</v>
+        <v>5.2489999999999997</v>
       </c>
       <c r="F179">
-        <v>31895.68</v>
+        <v>30474.03</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B180">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C180">
-        <v>318.89600000000002</v>
+        <v>410.95499999999998</v>
       </c>
       <c r="D180">
-        <v>8.9610000000000003</v>
+        <v>10.986000000000001</v>
       </c>
       <c r="E180">
-        <v>1.9870000000000001</v>
+        <v>3.3340000000000001</v>
       </c>
       <c r="F180">
-        <v>23824.639999999999</v>
+        <v>30784.02</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B181">
         <v>75</v>
       </c>
       <c r="C181">
-        <v>412.5</v>
+        <v>408.37099999999998</v>
       </c>
       <c r="D181">
-        <v>12.2</v>
+        <v>12.089</v>
       </c>
       <c r="E181">
-        <v>2.7679999999999998</v>
+        <v>3.1680000000000001</v>
       </c>
       <c r="F181">
-        <v>26488.03</v>
+        <v>26342.6</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B182">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C182">
-        <v>402.77699999999999</v>
+        <v>475.404</v>
       </c>
       <c r="D182">
-        <v>11.987</v>
+        <v>12.759</v>
       </c>
       <c r="E182">
-        <v>3.056</v>
+        <v>5.8449999999999998</v>
       </c>
       <c r="F182">
-        <v>25974.16</v>
+        <v>32650.46</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B183">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C183">
-        <v>463.88799999999998</v>
+        <v>472.92899999999997</v>
       </c>
       <c r="D183">
-        <v>13.183999999999999</v>
+        <v>13.444000000000001</v>
       </c>
       <c r="E183">
-        <v>5.4740000000000002</v>
+        <v>5.9279999999999999</v>
       </c>
       <c r="F183">
-        <v>29343.84</v>
+        <v>29430.58</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B184">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C184">
-        <v>435.84100000000001</v>
+        <v>405.32</v>
       </c>
       <c r="D184">
-        <v>13.968999999999999</v>
+        <v>11.198</v>
       </c>
       <c r="E184">
-        <v>5.4640000000000004</v>
+        <v>3.9689999999999999</v>
       </c>
       <c r="F184">
-        <v>23236.46</v>
+        <v>29146.06</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B185">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C185">
-        <v>396.38799999999998</v>
+        <v>464.09</v>
       </c>
       <c r="D185">
-        <v>13.237</v>
+        <v>12.803000000000001</v>
       </c>
       <c r="E185">
-        <v>2.4159999999999999</v>
+        <v>4.9989999999999997</v>
       </c>
       <c r="F185">
-        <v>21272.720000000001</v>
+        <v>30928.81</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B186">
+        <v>65</v>
+      </c>
+      <c r="C186">
+        <v>309.803</v>
+      </c>
+      <c r="D186">
+        <v>8.7710000000000008</v>
+      </c>
+      <c r="E186">
+        <v>1.236</v>
+      </c>
+      <c r="F186">
+        <v>23004.11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187">
         <v>78</v>
       </c>
-      <c r="C186">
-        <v>469.44400000000002</v>
-      </c>
-      <c r="D186">
-        <v>12.882</v>
-      </c>
-      <c r="E186">
-        <v>5.8639999999999999</v>
-      </c>
-      <c r="F186">
-        <v>31312.65</v>
+      <c r="C187">
+        <v>469.54199999999997</v>
+      </c>
+      <c r="D187">
+        <v>13.382999999999999</v>
+      </c>
+      <c r="E187">
+        <v>5.1619999999999999</v>
+      </c>
+      <c r="F187">
+        <v>29254.89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B188">
+        <v>77</v>
+      </c>
+      <c r="C188">
+        <v>455.10899999999998</v>
+      </c>
+      <c r="D188">
+        <v>13.118</v>
+      </c>
+      <c r="E188">
+        <v>4.242</v>
+      </c>
+      <c r="F188">
+        <v>28501.99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189">
+        <v>64</v>
+      </c>
+      <c r="C189">
+        <v>300.858</v>
+      </c>
+      <c r="D189">
+        <v>8.6850000000000005</v>
+      </c>
+      <c r="E189">
+        <v>1.032</v>
+      </c>
+      <c r="F189">
+        <v>21917.63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>31</v>
+      </c>
+      <c r="B190">
+        <v>71</v>
+      </c>
+      <c r="C190">
+        <v>386.07799999999997</v>
+      </c>
+      <c r="D190">
+        <v>11.507999999999999</v>
+      </c>
+      <c r="E190">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F190">
+        <v>25407.26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191">
+        <v>69</v>
+      </c>
+      <c r="C191">
+        <v>321.65800000000002</v>
+      </c>
+      <c r="D191">
+        <v>10.058</v>
+      </c>
+      <c r="E191">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F191">
+        <v>21197.96</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192">
+        <v>70</v>
+      </c>
+      <c r="C192">
+        <v>419.101</v>
+      </c>
+      <c r="D192">
+        <v>11.375999999999999</v>
+      </c>
+      <c r="E192">
+        <v>3.6970000000000001</v>
+      </c>
+      <c r="F192">
+        <v>30453.93</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193">
+        <v>77</v>
+      </c>
+      <c r="C193">
+        <v>446.584</v>
+      </c>
+      <c r="D193">
+        <v>12.871</v>
+      </c>
+      <c r="E193">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="F193">
+        <v>28377.91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194">
+        <v>76</v>
+      </c>
+      <c r="C194">
+        <v>468.25900000000001</v>
+      </c>
+      <c r="D194">
+        <v>12.711</v>
+      </c>
+      <c r="E194">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="F194">
+        <v>31883.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>35</v>
+      </c>
+      <c r="B195">
+        <v>65</v>
+      </c>
+      <c r="C195">
+        <v>318.62799999999999</v>
+      </c>
+      <c r="D195">
+        <v>8.9510000000000005</v>
+      </c>
+      <c r="E195">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="F195">
+        <v>23813.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196">
+        <v>75</v>
+      </c>
+      <c r="C196">
+        <v>412.5</v>
+      </c>
+      <c r="D196">
+        <v>12.2</v>
+      </c>
+      <c r="E196">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="F196">
+        <v>26488.03</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>37</v>
+      </c>
+      <c r="B197">
+        <v>75</v>
+      </c>
+      <c r="C197">
+        <v>402.238</v>
+      </c>
+      <c r="D197">
+        <v>11.972</v>
+      </c>
+      <c r="E197">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="F197">
+        <v>25957.68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>38</v>
+      </c>
+      <c r="B198">
+        <v>79</v>
+      </c>
+      <c r="C198">
+        <v>463.88799999999998</v>
+      </c>
+      <c r="D198">
+        <v>13.183999999999999</v>
+      </c>
+      <c r="E198">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="F198">
+        <v>29343.84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>39</v>
+      </c>
+      <c r="B199">
+        <v>76</v>
+      </c>
+      <c r="C199">
+        <v>435.84100000000001</v>
+      </c>
+      <c r="D199">
+        <v>13.968999999999999</v>
+      </c>
+      <c r="E199">
+        <v>5.4640000000000004</v>
+      </c>
+      <c r="F199">
+        <v>23236.46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200">
+        <v>78</v>
+      </c>
+      <c r="C200">
+        <v>396.38799999999998</v>
+      </c>
+      <c r="D200">
+        <v>13.237</v>
+      </c>
+      <c r="E200">
+        <v>2.4159999999999999</v>
+      </c>
+      <c r="F200">
+        <v>21272.720000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>41</v>
+      </c>
+      <c r="B201">
+        <v>78</v>
+      </c>
+      <c r="C201">
+        <v>469.44400000000002</v>
+      </c>
+      <c r="D201">
+        <v>12.882</v>
+      </c>
+      <c r="E201">
+        <v>5.8639999999999999</v>
+      </c>
+      <c r="F201">
+        <v>31312.65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>42</v>
+      </c>
+      <c r="B202">
+        <v>77</v>
+      </c>
+      <c r="C202">
+        <v>417.77699999999999</v>
+      </c>
+      <c r="D202">
+        <v>12.516999999999999</v>
+      </c>
+      <c r="E202">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="F202">
+        <v>26048.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203">
+        <v>63</v>
+      </c>
+      <c r="C203">
+        <v>293.2</v>
+      </c>
+      <c r="D203">
+        <v>8.2409999999999997</v>
+      </c>
+      <c r="E203">
+        <v>1.048</v>
+      </c>
+      <c r="F203">
+        <v>21943.11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>44</v>
+      </c>
+      <c r="B204">
+        <v>75</v>
+      </c>
+      <c r="C204">
+        <v>406.68299999999999</v>
+      </c>
+      <c r="D204">
+        <v>12.337</v>
+      </c>
+      <c r="E204">
+        <v>2.431</v>
+      </c>
+      <c r="F204">
+        <v>25282.35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>56</v>
+      </c>
+      <c r="C211" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" t="s">
-        <v>52</v>
-      </c>
-      <c r="C193" t="s">
-        <v>53</v>
-      </c>
-      <c r="D193" t="s">
-        <v>54</v>
-      </c>
-      <c r="E193" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>44</v>
-      </c>
-      <c r="B194">
+      <c r="D211" t="s">
+        <v>58</v>
+      </c>
+      <c r="E211" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>48</v>
+      </c>
+      <c r="B212">
         <v>284</v>
       </c>
-      <c r="C194">
-        <v>290.45499999999998</v>
-      </c>
-      <c r="D194">
+      <c r="C212">
+        <v>290.447</v>
+      </c>
+      <c r="D212">
         <v>165.61099999999999</v>
       </c>
-      <c r="E194">
-        <v>50.896000000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>26</v>
-      </c>
-      <c r="B195">
+      <c r="E212">
+        <v>51.015000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>27</v>
+      </c>
+      <c r="B213">
         <v>248</v>
       </c>
-      <c r="C195">
-        <v>475.38799999999998</v>
-      </c>
-      <c r="D195">
+      <c r="C213">
+        <v>475.38499999999999</v>
+      </c>
+      <c r="D213">
         <v>120.116</v>
       </c>
-      <c r="E195">
-        <v>70.396000000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>27</v>
-      </c>
-      <c r="B196">
+      <c r="E213">
+        <v>70.427999999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214">
         <v>270</v>
       </c>
-      <c r="C196">
-        <v>2138.1959999999999</v>
-      </c>
-      <c r="D196">
+      <c r="C214">
+        <v>2138.194</v>
+      </c>
+      <c r="D214">
         <v>119.21599999999999</v>
       </c>
-      <c r="E196">
-        <v>331.18200000000002</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>29</v>
-      </c>
-      <c r="B197">
+      <c r="E214">
+        <v>331.11099999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215">
         <v>250</v>
       </c>
-      <c r="C197">
-        <v>460.73399999999998</v>
-      </c>
-      <c r="D197">
+      <c r="C215">
+        <v>460.73099999999999</v>
+      </c>
+      <c r="D215">
         <v>118.492</v>
       </c>
-      <c r="E197">
-        <v>67.397000000000006</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>31</v>
-      </c>
-      <c r="B198">
+      <c r="E215">
+        <v>67.424999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216">
         <v>261</v>
       </c>
-      <c r="C198">
-        <v>341.50299999999999</v>
-      </c>
-      <c r="D198">
+      <c r="C216">
+        <v>341.5</v>
+      </c>
+      <c r="D216">
         <v>136.18899999999999</v>
       </c>
-      <c r="E198">
-        <v>53.281999999999996</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>45</v>
-      </c>
-      <c r="B199">
-        <v>231</v>
-      </c>
-      <c r="C199">
-        <v>645.06799999999998</v>
-      </c>
-      <c r="D199">
+      <c r="E216">
+        <v>54.634</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>49</v>
+      </c>
+      <c r="B217">
+        <v>232</v>
+      </c>
+      <c r="C217">
+        <v>645.20899999999995</v>
+      </c>
+      <c r="D217">
         <v>106.905</v>
       </c>
-      <c r="E199">
-        <v>148.32599999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>32</v>
-      </c>
-      <c r="B200">
+      <c r="E217">
+        <v>148.922</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>33</v>
+      </c>
+      <c r="B218">
         <v>270</v>
       </c>
-      <c r="C200">
-        <v>2054.877</v>
-      </c>
-      <c r="D200">
+      <c r="C218">
+        <v>2054.875</v>
+      </c>
+      <c r="D218">
         <v>119.045</v>
       </c>
-      <c r="E200">
-        <v>318.04899999999998</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>33</v>
-      </c>
-      <c r="B201">
+      <c r="E218">
+        <v>317.99299999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>34</v>
+      </c>
+      <c r="B219">
         <v>268</v>
       </c>
-      <c r="C201">
-        <v>2044.174</v>
-      </c>
-      <c r="D201">
+      <c r="C219">
+        <v>2044.171</v>
+      </c>
+      <c r="D219">
         <v>118.973</v>
       </c>
-      <c r="E201">
-        <v>318.245</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>36</v>
-      </c>
-      <c r="B202">
+      <c r="E219">
+        <v>318.185</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B220">
         <v>255</v>
       </c>
-      <c r="C202">
-        <v>412.65800000000002</v>
-      </c>
-      <c r="D202">
+      <c r="C220">
+        <v>412.654</v>
+      </c>
+      <c r="D220">
         <v>124.946</v>
       </c>
-      <c r="E202">
-        <v>65.015000000000001</v>
+      <c r="E220">
+        <v>65.052999999999997</v>
       </c>
     </row>
   </sheetData>
